--- a/series_02/mpi_0/span_020/qsmf_output.xlsx
+++ b/series_02/mpi_0/span_020/qsmf_output.xlsx
@@ -395,7 +395,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:H67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -429,13 +429,13 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2">
-        <v>-8</v>
+        <v>-9</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
       <c r="C2">
-        <v>6.5405</v>
+        <v>5.7534</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -455,13 +455,13 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3">
-        <v>-7</v>
+        <v>-8</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
       <c r="C3">
-        <v>7.159</v>
+        <v>6.5405</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -481,13 +481,13 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4">
-        <v>-6</v>
+        <v>-7</v>
       </c>
       <c r="B4">
         <v>0</v>
       </c>
       <c r="C4">
-        <v>7.3745</v>
+        <v>7.159</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -507,13 +507,13 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5">
-        <v>-3</v>
+        <v>-6</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
       <c r="C5">
-        <v>6.1361</v>
+        <v>7.3745</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -536,10 +536,10 @@
         <v>-5</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>7.4727</v>
+        <v>7.282</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -559,13 +559,13 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7">
-        <v>-9</v>
+        <v>-4</v>
       </c>
       <c r="B7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>5.7459</v>
+        <v>6.2783</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -585,13 +585,13 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8">
-        <v>-7</v>
+        <v>-3</v>
       </c>
       <c r="B8">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>7.0153</v>
+        <v>6.1361</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -611,13 +611,13 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="B9">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>2.6832</v>
+        <v>5.2814</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -637,13 +637,13 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10">
-        <v>-6</v>
+        <v>-1</v>
       </c>
       <c r="B10">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C10">
-        <v>7.3576</v>
+        <v>2.7167</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -663,13 +663,13 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="B11">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C11">
-        <v>7.4132</v>
+        <v>0.5484600000000001</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -689,13 +689,13 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="B12">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C12">
-        <v>6.1793</v>
+        <v>-0.4835100000000001</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -715,13 +715,13 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13">
-        <v>-3</v>
+        <v>2</v>
       </c>
       <c r="B13">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C13">
-        <v>6.9899</v>
+        <v>-2.7094</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -741,13 +741,13 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14">
-        <v>-5</v>
+        <v>-9</v>
       </c>
       <c r="B14">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C14">
-        <v>7.3711</v>
+        <v>5.7709</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -767,13 +767,13 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15">
-        <v>-3</v>
+        <v>-7</v>
       </c>
       <c r="B15">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C15">
-        <v>7.1329</v>
+        <v>7.0933</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -793,13 +793,13 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16">
+        <v>-6</v>
+      </c>
+      <c r="B16">
         <v>2</v>
       </c>
-      <c r="B16">
-        <v>12</v>
-      </c>
       <c r="C16">
-        <v>0.92884</v>
+        <v>7.5391</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -819,13 +819,13 @@
     </row>
     <row r="17" spans="1:8">
       <c r="A17">
-        <v>-8</v>
+        <v>-5</v>
       </c>
       <c r="B17">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="C17">
-        <v>5.8596</v>
+        <v>7.4727</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -845,13 +845,13 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="B18">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="C18">
-        <v>4.7963</v>
+        <v>5.2915</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -871,13 +871,13 @@
     </row>
     <row r="19" spans="1:8">
       <c r="A19">
-        <v>-6</v>
+        <v>-1</v>
       </c>
       <c r="B19">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="C19">
-        <v>6.697</v>
+        <v>3.513</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -897,13 +897,13 @@
     </row>
     <row r="20" spans="1:8">
       <c r="A20">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="B20">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="C20">
-        <v>6.8664</v>
+        <v>1.5136</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -926,10 +926,10 @@
         <v>-9</v>
       </c>
       <c r="B21">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="C21">
-        <v>5.0955</v>
+        <v>5.7459</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -949,13 +949,13 @@
     </row>
     <row r="22" spans="1:8">
       <c r="A22">
-        <v>-5</v>
+        <v>-7</v>
       </c>
       <c r="B22">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="C22">
-        <v>6.6937</v>
+        <v>7.0153</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -975,13 +975,13 @@
     </row>
     <row r="23" spans="1:8">
       <c r="A23">
-        <v>1</v>
+        <v>-5</v>
       </c>
       <c r="B23">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="C23">
-        <v>5.1962</v>
+        <v>7.5551</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -1001,27 +1001,1145 @@
     </row>
     <row r="24" spans="1:8">
       <c r="A24">
+        <v>-4</v>
+      </c>
+      <c r="B24">
+        <v>4</v>
+      </c>
+      <c r="C24">
+        <v>7.4258</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>250</v>
+      </c>
+      <c r="F24">
+        <v>112</v>
+      </c>
+      <c r="G24">
+        <v>0.16</v>
+      </c>
+      <c r="H24">
+        <v>0.158</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25">
+        <v>0</v>
+      </c>
+      <c r="B25">
+        <v>4</v>
+      </c>
+      <c r="C25">
+        <v>2.6832</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>250</v>
+      </c>
+      <c r="F25">
+        <v>112</v>
+      </c>
+      <c r="G25">
+        <v>0.16</v>
+      </c>
+      <c r="H25">
+        <v>0.158</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26">
+        <v>-6</v>
+      </c>
+      <c r="B26">
+        <v>6</v>
+      </c>
+      <c r="C26">
+        <v>7.3576</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>250</v>
+      </c>
+      <c r="F26">
+        <v>112</v>
+      </c>
+      <c r="G26">
+        <v>0.16</v>
+      </c>
+      <c r="H26">
+        <v>0.158</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27">
+        <v>-5</v>
+      </c>
+      <c r="B27">
+        <v>6</v>
+      </c>
+      <c r="C27">
+        <v>7.511</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>250</v>
+      </c>
+      <c r="F27">
+        <v>112</v>
+      </c>
+      <c r="G27">
+        <v>0.16</v>
+      </c>
+      <c r="H27">
+        <v>0.158</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28">
+        <v>-4</v>
+      </c>
+      <c r="B28">
+        <v>6</v>
+      </c>
+      <c r="C28">
+        <v>7.4132</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>250</v>
+      </c>
+      <c r="F28">
+        <v>112</v>
+      </c>
+      <c r="G28">
+        <v>0.16</v>
+      </c>
+      <c r="H28">
+        <v>0.158</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29">
+        <v>-2</v>
+      </c>
+      <c r="B29">
+        <v>6</v>
+      </c>
+      <c r="C29">
+        <v>6.1793</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>250</v>
+      </c>
+      <c r="F29">
+        <v>112</v>
+      </c>
+      <c r="G29">
+        <v>0.16</v>
+      </c>
+      <c r="H29">
+        <v>0.158</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30">
+        <v>0</v>
+      </c>
+      <c r="B30">
+        <v>6</v>
+      </c>
+      <c r="C30">
+        <v>2.5109</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>250</v>
+      </c>
+      <c r="F30">
+        <v>112</v>
+      </c>
+      <c r="G30">
+        <v>0.16</v>
+      </c>
+      <c r="H30">
+        <v>0.158</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31">
+        <v>1</v>
+      </c>
+      <c r="B31">
+        <v>6</v>
+      </c>
+      <c r="C31">
+        <v>1.6645</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>250</v>
+      </c>
+      <c r="F31">
+        <v>112</v>
+      </c>
+      <c r="G31">
+        <v>0.16</v>
+      </c>
+      <c r="H31">
+        <v>0.158</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32">
         <v>2</v>
       </c>
-      <c r="B24">
+      <c r="B32">
+        <v>6</v>
+      </c>
+      <c r="C32">
+        <v>0.26537</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>250</v>
+      </c>
+      <c r="F32">
+        <v>112</v>
+      </c>
+      <c r="G32">
+        <v>0.16</v>
+      </c>
+      <c r="H32">
+        <v>0.158</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33">
+        <v>-9</v>
+      </c>
+      <c r="B33">
+        <v>8</v>
+      </c>
+      <c r="C33">
+        <v>5.5698</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>250</v>
+      </c>
+      <c r="F33">
+        <v>112</v>
+      </c>
+      <c r="G33">
+        <v>0.16</v>
+      </c>
+      <c r="H33">
+        <v>0.158</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34">
+        <v>-7</v>
+      </c>
+      <c r="B34">
+        <v>8</v>
+      </c>
+      <c r="C34">
+        <v>6.8235</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>250</v>
+      </c>
+      <c r="F34">
+        <v>112</v>
+      </c>
+      <c r="G34">
+        <v>0.16</v>
+      </c>
+      <c r="H34">
+        <v>0.158</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35">
+        <v>-3</v>
+      </c>
+      <c r="B35">
+        <v>8</v>
+      </c>
+      <c r="C35">
+        <v>6.9899</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>250</v>
+      </c>
+      <c r="F35">
+        <v>112</v>
+      </c>
+      <c r="G35">
+        <v>0.16</v>
+      </c>
+      <c r="H35">
+        <v>0.158</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36">
+        <v>-1</v>
+      </c>
+      <c r="B36">
+        <v>8</v>
+      </c>
+      <c r="C36">
+        <v>5.593999999999999</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>250</v>
+      </c>
+      <c r="F36">
+        <v>112</v>
+      </c>
+      <c r="G36">
+        <v>0.16</v>
+      </c>
+      <c r="H36">
+        <v>0.158</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37">
+        <v>0</v>
+      </c>
+      <c r="B37">
+        <v>8</v>
+      </c>
+      <c r="C37">
+        <v>2.0474</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>250</v>
+      </c>
+      <c r="F37">
+        <v>112</v>
+      </c>
+      <c r="G37">
+        <v>0.16</v>
+      </c>
+      <c r="H37">
+        <v>0.158</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38">
+        <v>1</v>
+      </c>
+      <c r="B38">
+        <v>8</v>
+      </c>
+      <c r="C38">
+        <v>1.4931</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>250</v>
+      </c>
+      <c r="F38">
+        <v>112</v>
+      </c>
+      <c r="G38">
+        <v>0.16</v>
+      </c>
+      <c r="H38">
+        <v>0.158</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39">
+        <v>2</v>
+      </c>
+      <c r="B39">
+        <v>8</v>
+      </c>
+      <c r="C39">
+        <v>0.22548</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>250</v>
+      </c>
+      <c r="F39">
+        <v>112</v>
+      </c>
+      <c r="G39">
+        <v>0.16</v>
+      </c>
+      <c r="H39">
+        <v>0.158</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40">
+        <v>-9</v>
+      </c>
+      <c r="B40">
+        <v>10</v>
+      </c>
+      <c r="C40">
+        <v>5.462999999999999</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>250</v>
+      </c>
+      <c r="F40">
+        <v>112</v>
+      </c>
+      <c r="G40">
+        <v>0.16</v>
+      </c>
+      <c r="H40">
+        <v>0.158</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41">
+        <v>-8</v>
+      </c>
+      <c r="B41">
+        <v>10</v>
+      </c>
+      <c r="C41">
+        <v>6.051</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>250</v>
+      </c>
+      <c r="F41">
+        <v>112</v>
+      </c>
+      <c r="G41">
+        <v>0.16</v>
+      </c>
+      <c r="H41">
+        <v>0.158</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42">
+        <v>-7</v>
+      </c>
+      <c r="B42">
+        <v>10</v>
+      </c>
+      <c r="C42">
+        <v>6.6362</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>250</v>
+      </c>
+      <c r="F42">
+        <v>112</v>
+      </c>
+      <c r="G42">
+        <v>0.16</v>
+      </c>
+      <c r="H42">
+        <v>0.158</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43">
+        <v>-6</v>
+      </c>
+      <c r="B43">
+        <v>10</v>
+      </c>
+      <c r="C43">
+        <v>7.0248</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>250</v>
+      </c>
+      <c r="F43">
+        <v>112</v>
+      </c>
+      <c r="G43">
+        <v>0.16</v>
+      </c>
+      <c r="H43">
+        <v>0.158</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44">
+        <v>-5</v>
+      </c>
+      <c r="B44">
+        <v>10</v>
+      </c>
+      <c r="C44">
+        <v>7.3711</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>250</v>
+      </c>
+      <c r="F44">
+        <v>112</v>
+      </c>
+      <c r="G44">
+        <v>0.16</v>
+      </c>
+      <c r="H44">
+        <v>0.158</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45">
+        <v>-4</v>
+      </c>
+      <c r="B45">
+        <v>10</v>
+      </c>
+      <c r="C45">
+        <v>7.481</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>250</v>
+      </c>
+      <c r="F45">
+        <v>112</v>
+      </c>
+      <c r="G45">
+        <v>0.16</v>
+      </c>
+      <c r="H45">
+        <v>0.158</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46">
+        <v>-3</v>
+      </c>
+      <c r="B46">
+        <v>10</v>
+      </c>
+      <c r="C46">
+        <v>7.1329</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>250</v>
+      </c>
+      <c r="F46">
+        <v>112</v>
+      </c>
+      <c r="G46">
+        <v>0.16</v>
+      </c>
+      <c r="H46">
+        <v>0.158</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47">
+        <v>-2</v>
+      </c>
+      <c r="B47">
+        <v>10</v>
+      </c>
+      <c r="C47">
+        <v>6.6092</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>250</v>
+      </c>
+      <c r="F47">
+        <v>112</v>
+      </c>
+      <c r="G47">
+        <v>0.16</v>
+      </c>
+      <c r="H47">
+        <v>0.158</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48">
+        <v>2</v>
+      </c>
+      <c r="B48">
+        <v>10</v>
+      </c>
+      <c r="C48">
+        <v>0.52717</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>250</v>
+      </c>
+      <c r="F48">
+        <v>112</v>
+      </c>
+      <c r="G48">
+        <v>0.16</v>
+      </c>
+      <c r="H48">
+        <v>0.158</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49">
+        <v>-9</v>
+      </c>
+      <c r="B49">
+        <v>12</v>
+      </c>
+      <c r="C49">
+        <v>5.4376</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <v>250</v>
+      </c>
+      <c r="F49">
+        <v>112</v>
+      </c>
+      <c r="G49">
+        <v>0.16</v>
+      </c>
+      <c r="H49">
+        <v>0.158</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50">
+        <v>-8</v>
+      </c>
+      <c r="B50">
+        <v>12</v>
+      </c>
+      <c r="C50">
+        <v>6.0709</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>250</v>
+      </c>
+      <c r="F50">
+        <v>112</v>
+      </c>
+      <c r="G50">
+        <v>0.16</v>
+      </c>
+      <c r="H50">
+        <v>0.158</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51">
+        <v>-7</v>
+      </c>
+      <c r="B51">
+        <v>12</v>
+      </c>
+      <c r="C51">
+        <v>6.4565</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>250</v>
+      </c>
+      <c r="F51">
+        <v>112</v>
+      </c>
+      <c r="G51">
+        <v>0.16</v>
+      </c>
+      <c r="H51">
+        <v>0.158</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52">
+        <v>-6</v>
+      </c>
+      <c r="B52">
+        <v>12</v>
+      </c>
+      <c r="C52">
+        <v>6.9119</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>250</v>
+      </c>
+      <c r="F52">
+        <v>112</v>
+      </c>
+      <c r="G52">
+        <v>0.16</v>
+      </c>
+      <c r="H52">
+        <v>0.158</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53">
+        <v>-5</v>
+      </c>
+      <c r="B53">
+        <v>12</v>
+      </c>
+      <c r="C53">
+        <v>7.2532</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="E53">
+        <v>250</v>
+      </c>
+      <c r="F53">
+        <v>112</v>
+      </c>
+      <c r="G53">
+        <v>0.16</v>
+      </c>
+      <c r="H53">
+        <v>0.158</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54">
+        <v>2</v>
+      </c>
+      <c r="B54">
+        <v>12</v>
+      </c>
+      <c r="C54">
+        <v>0.92884</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <v>250</v>
+      </c>
+      <c r="F54">
+        <v>112</v>
+      </c>
+      <c r="G54">
+        <v>0.16</v>
+      </c>
+      <c r="H54">
+        <v>0.158</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55">
+        <v>-8</v>
+      </c>
+      <c r="B55">
+        <v>14</v>
+      </c>
+      <c r="C55">
+        <v>5.8596</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55">
+        <v>250</v>
+      </c>
+      <c r="F55">
+        <v>112</v>
+      </c>
+      <c r="G55">
+        <v>0.16</v>
+      </c>
+      <c r="H55">
+        <v>0.158</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56">
+        <v>0</v>
+      </c>
+      <c r="B56">
+        <v>14</v>
+      </c>
+      <c r="C56">
+        <v>4.7963</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+      <c r="E56">
+        <v>250</v>
+      </c>
+      <c r="F56">
+        <v>112</v>
+      </c>
+      <c r="G56">
+        <v>0.16</v>
+      </c>
+      <c r="H56">
+        <v>0.158</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57">
+        <v>-7</v>
+      </c>
+      <c r="B57">
+        <v>16</v>
+      </c>
+      <c r="C57">
+        <v>6.2527</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>250</v>
+      </c>
+      <c r="F57">
+        <v>112</v>
+      </c>
+      <c r="G57">
+        <v>0.16</v>
+      </c>
+      <c r="H57">
+        <v>0.158</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58">
+        <v>-6</v>
+      </c>
+      <c r="B58">
+        <v>16</v>
+      </c>
+      <c r="C58">
+        <v>6.697</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="E58">
+        <v>250</v>
+      </c>
+      <c r="F58">
+        <v>112</v>
+      </c>
+      <c r="G58">
+        <v>0.16</v>
+      </c>
+      <c r="H58">
+        <v>0.158</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59">
+        <v>-4</v>
+      </c>
+      <c r="B59">
+        <v>16</v>
+      </c>
+      <c r="C59">
+        <v>7.1845</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+      <c r="E59">
+        <v>250</v>
+      </c>
+      <c r="F59">
+        <v>112</v>
+      </c>
+      <c r="G59">
+        <v>0.16</v>
+      </c>
+      <c r="H59">
+        <v>0.158</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60">
+        <v>-3</v>
+      </c>
+      <c r="B60">
+        <v>16</v>
+      </c>
+      <c r="C60">
+        <v>7.341</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+      <c r="E60">
+        <v>250</v>
+      </c>
+      <c r="F60">
+        <v>112</v>
+      </c>
+      <c r="G60">
+        <v>0.16</v>
+      </c>
+      <c r="H60">
+        <v>0.158</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61">
+        <v>-2</v>
+      </c>
+      <c r="B61">
+        <v>16</v>
+      </c>
+      <c r="C61">
+        <v>6.9065</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+      <c r="E61">
+        <v>250</v>
+      </c>
+      <c r="F61">
+        <v>112</v>
+      </c>
+      <c r="G61">
+        <v>0.16</v>
+      </c>
+      <c r="H61">
+        <v>0.158</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="A62">
+        <v>0</v>
+      </c>
+      <c r="B62">
+        <v>16</v>
+      </c>
+      <c r="C62">
+        <v>5.4875</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+      <c r="E62">
+        <v>250</v>
+      </c>
+      <c r="F62">
+        <v>112</v>
+      </c>
+      <c r="G62">
+        <v>0.16</v>
+      </c>
+      <c r="H62">
+        <v>0.158</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63">
+        <v>-5</v>
+      </c>
+      <c r="B63">
+        <v>18</v>
+      </c>
+      <c r="C63">
+        <v>6.8664</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
+      <c r="E63">
+        <v>250</v>
+      </c>
+      <c r="F63">
+        <v>112</v>
+      </c>
+      <c r="G63">
+        <v>0.16</v>
+      </c>
+      <c r="H63">
+        <v>0.158</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="A64">
+        <v>-9</v>
+      </c>
+      <c r="B64">
         <v>20</v>
       </c>
-      <c r="C24">
+      <c r="C64">
+        <v>5.0955</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
+      <c r="E64">
+        <v>250</v>
+      </c>
+      <c r="F64">
+        <v>112</v>
+      </c>
+      <c r="G64">
+        <v>0.16</v>
+      </c>
+      <c r="H64">
+        <v>0.158</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
+      <c r="A65">
+        <v>-5</v>
+      </c>
+      <c r="B65">
+        <v>20</v>
+      </c>
+      <c r="C65">
+        <v>6.6937</v>
+      </c>
+      <c r="D65">
+        <v>0</v>
+      </c>
+      <c r="E65">
+        <v>250</v>
+      </c>
+      <c r="F65">
+        <v>112</v>
+      </c>
+      <c r="G65">
+        <v>0.16</v>
+      </c>
+      <c r="H65">
+        <v>0.158</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
+      <c r="A66">
+        <v>1</v>
+      </c>
+      <c r="B66">
+        <v>20</v>
+      </c>
+      <c r="C66">
+        <v>5.1962</v>
+      </c>
+      <c r="D66">
+        <v>0</v>
+      </c>
+      <c r="E66">
+        <v>250</v>
+      </c>
+      <c r="F66">
+        <v>112</v>
+      </c>
+      <c r="G66">
+        <v>0.16</v>
+      </c>
+      <c r="H66">
+        <v>0.158</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="A67">
+        <v>2</v>
+      </c>
+      <c r="B67">
+        <v>20</v>
+      </c>
+      <c r="C67">
         <v>3.4521</v>
       </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-      <c r="E24">
-        <v>250</v>
-      </c>
-      <c r="F24">
-        <v>112</v>
-      </c>
-      <c r="G24">
-        <v>0.16</v>
-      </c>
-      <c r="H24">
+      <c r="D67">
+        <v>0</v>
+      </c>
+      <c r="E67">
+        <v>250</v>
+      </c>
+      <c r="F67">
+        <v>112</v>
+      </c>
+      <c r="G67">
+        <v>0.16</v>
+      </c>
+      <c r="H67">
         <v>0.158</v>
       </c>
     </row>

--- a/series_02/mpi_0/span_020/qsmf_output.xlsx
+++ b/series_02/mpi_0/span_020/qsmf_output.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Laser Power (dBm)</t>
   </si>
@@ -23,6 +23,9 @@
   </si>
   <si>
     <t>Q (dB)</t>
+  </si>
+  <si>
+    <t>Span (km)</t>
   </si>
   <si>
     <t>Compensation (%)</t>
@@ -395,13 +398,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H92"/>
+  <dimension ref="A1:I92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -426,8 +429,11 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2">
         <v>-9</v>
       </c>
@@ -437,23 +443,23 @@
       <c r="C2">
         <v>5.7534</v>
       </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
       <c r="E2">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>112</v>
+        <v>250</v>
       </c>
       <c r="G2">
-        <v>0.16</v>
+        <v>112</v>
       </c>
       <c r="H2">
-        <v>0.158</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>0.16</v>
+      </c>
+      <c r="I2">
+        <v>0.158</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3">
         <v>-8</v>
       </c>
@@ -463,23 +469,23 @@
       <c r="C3">
         <v>6.5405</v>
       </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
       <c r="E3">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>112</v>
+        <v>250</v>
       </c>
       <c r="G3">
-        <v>0.16</v>
+        <v>112</v>
       </c>
       <c r="H3">
-        <v>0.158</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>0.16</v>
+      </c>
+      <c r="I3">
+        <v>0.158</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4">
         <v>-7</v>
       </c>
@@ -489,23 +495,23 @@
       <c r="C4">
         <v>7.159</v>
       </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
       <c r="E4">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>112</v>
+        <v>250</v>
       </c>
       <c r="G4">
-        <v>0.16</v>
+        <v>112</v>
       </c>
       <c r="H4">
-        <v>0.158</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>0.16</v>
+      </c>
+      <c r="I4">
+        <v>0.158</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5">
         <v>-6</v>
       </c>
@@ -515,23 +521,23 @@
       <c r="C5">
         <v>7.3745</v>
       </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
       <c r="E5">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>112</v>
+        <v>250</v>
       </c>
       <c r="G5">
-        <v>0.16</v>
+        <v>112</v>
       </c>
       <c r="H5">
-        <v>0.158</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>0.16</v>
+      </c>
+      <c r="I5">
+        <v>0.158</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6">
         <v>-5</v>
       </c>
@@ -541,23 +547,23 @@
       <c r="C6">
         <v>7.282</v>
       </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
       <c r="E6">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>112</v>
+        <v>250</v>
       </c>
       <c r="G6">
-        <v>0.16</v>
+        <v>112</v>
       </c>
       <c r="H6">
-        <v>0.158</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>0.16</v>
+      </c>
+      <c r="I6">
+        <v>0.158</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7">
         <v>-4</v>
       </c>
@@ -567,23 +573,23 @@
       <c r="C7">
         <v>6.2783</v>
       </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
       <c r="E7">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>112</v>
+        <v>250</v>
       </c>
       <c r="G7">
-        <v>0.16</v>
+        <v>112</v>
       </c>
       <c r="H7">
-        <v>0.158</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>0.16</v>
+      </c>
+      <c r="I7">
+        <v>0.158</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8">
         <v>-3</v>
       </c>
@@ -593,23 +599,23 @@
       <c r="C8">
         <v>6.1361</v>
       </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
       <c r="E8">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>112</v>
+        <v>250</v>
       </c>
       <c r="G8">
-        <v>0.16</v>
+        <v>112</v>
       </c>
       <c r="H8">
-        <v>0.158</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>0.16</v>
+      </c>
+      <c r="I8">
+        <v>0.158</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9">
         <v>-2</v>
       </c>
@@ -619,23 +625,23 @@
       <c r="C9">
         <v>5.2814</v>
       </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
       <c r="E9">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>112</v>
+        <v>250</v>
       </c>
       <c r="G9">
-        <v>0.16</v>
+        <v>112</v>
       </c>
       <c r="H9">
-        <v>0.158</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>0.16</v>
+      </c>
+      <c r="I9">
+        <v>0.158</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10">
         <v>-1</v>
       </c>
@@ -645,23 +651,23 @@
       <c r="C10">
         <v>2.7167</v>
       </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
       <c r="E10">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>112</v>
+        <v>250</v>
       </c>
       <c r="G10">
-        <v>0.16</v>
+        <v>112</v>
       </c>
       <c r="H10">
-        <v>0.158</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>0.16</v>
+      </c>
+      <c r="I10">
+        <v>0.158</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11">
         <v>0</v>
       </c>
@@ -671,23 +677,23 @@
       <c r="C11">
         <v>0.5484600000000001</v>
       </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
       <c r="E11">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>112</v>
+        <v>250</v>
       </c>
       <c r="G11">
-        <v>0.16</v>
+        <v>112</v>
       </c>
       <c r="H11">
-        <v>0.158</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>0.16</v>
+      </c>
+      <c r="I11">
+        <v>0.158</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12">
         <v>1</v>
       </c>
@@ -697,23 +703,23 @@
       <c r="C12">
         <v>-0.4835100000000001</v>
       </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
       <c r="E12">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="F12">
-        <v>112</v>
+        <v>250</v>
       </c>
       <c r="G12">
-        <v>0.16</v>
+        <v>112</v>
       </c>
       <c r="H12">
-        <v>0.158</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>0.16</v>
+      </c>
+      <c r="I12">
+        <v>0.158</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13">
         <v>2</v>
       </c>
@@ -723,23 +729,23 @@
       <c r="C13">
         <v>-2.7094</v>
       </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
       <c r="E13">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="F13">
-        <v>112</v>
+        <v>250</v>
       </c>
       <c r="G13">
-        <v>0.16</v>
+        <v>112</v>
       </c>
       <c r="H13">
-        <v>0.158</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>0.16</v>
+      </c>
+      <c r="I13">
+        <v>0.158</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14">
         <v>-9</v>
       </c>
@@ -749,23 +755,23 @@
       <c r="C14">
         <v>5.7709</v>
       </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
       <c r="E14">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="F14">
-        <v>112</v>
+        <v>250</v>
       </c>
       <c r="G14">
-        <v>0.16</v>
+        <v>112</v>
       </c>
       <c r="H14">
-        <v>0.158</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>0.16</v>
+      </c>
+      <c r="I14">
+        <v>0.158</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15">
         <v>-8</v>
       </c>
@@ -775,23 +781,23 @@
       <c r="C15">
         <v>6.5213</v>
       </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
       <c r="E15">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="F15">
-        <v>112</v>
+        <v>250</v>
       </c>
       <c r="G15">
-        <v>0.16</v>
+        <v>112</v>
       </c>
       <c r="H15">
-        <v>0.158</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>0.16</v>
+      </c>
+      <c r="I15">
+        <v>0.158</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16">
         <v>-7</v>
       </c>
@@ -801,23 +807,23 @@
       <c r="C16">
         <v>7.0933</v>
       </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
       <c r="E16">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="F16">
-        <v>112</v>
+        <v>250</v>
       </c>
       <c r="G16">
-        <v>0.16</v>
+        <v>112</v>
       </c>
       <c r="H16">
-        <v>0.158</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>0.16</v>
+      </c>
+      <c r="I16">
+        <v>0.158</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17">
         <v>-6</v>
       </c>
@@ -827,23 +833,23 @@
       <c r="C17">
         <v>7.5391</v>
       </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
       <c r="E17">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="F17">
-        <v>112</v>
+        <v>250</v>
       </c>
       <c r="G17">
-        <v>0.16</v>
+        <v>112</v>
       </c>
       <c r="H17">
-        <v>0.158</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>0.16</v>
+      </c>
+      <c r="I17">
+        <v>0.158</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18">
         <v>-5</v>
       </c>
@@ -853,23 +859,23 @@
       <c r="C18">
         <v>7.4727</v>
       </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
       <c r="E18">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="F18">
-        <v>112</v>
+        <v>250</v>
       </c>
       <c r="G18">
-        <v>0.16</v>
+        <v>112</v>
       </c>
       <c r="H18">
-        <v>0.158</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>0.16</v>
+      </c>
+      <c r="I18">
+        <v>0.158</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19">
         <v>-4</v>
       </c>
@@ -879,23 +885,23 @@
       <c r="C19">
         <v>7.1947</v>
       </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
       <c r="E19">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="F19">
-        <v>112</v>
+        <v>250</v>
       </c>
       <c r="G19">
-        <v>0.16</v>
+        <v>112</v>
       </c>
       <c r="H19">
-        <v>0.158</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>0.16</v>
+      </c>
+      <c r="I19">
+        <v>0.158</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20">
         <v>-3</v>
       </c>
@@ -905,23 +911,23 @@
       <c r="C20">
         <v>6.606</v>
       </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
       <c r="E20">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="F20">
-        <v>112</v>
+        <v>250</v>
       </c>
       <c r="G20">
-        <v>0.16</v>
+        <v>112</v>
       </c>
       <c r="H20">
-        <v>0.158</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>0.16</v>
+      </c>
+      <c r="I20">
+        <v>0.158</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21">
         <v>-2</v>
       </c>
@@ -931,23 +937,23 @@
       <c r="C21">
         <v>5.2915</v>
       </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
       <c r="E21">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="F21">
-        <v>112</v>
+        <v>250</v>
       </c>
       <c r="G21">
-        <v>0.16</v>
+        <v>112</v>
       </c>
       <c r="H21">
-        <v>0.158</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>0.16</v>
+      </c>
+      <c r="I21">
+        <v>0.158</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22">
         <v>-1</v>
       </c>
@@ -957,23 +963,23 @@
       <c r="C22">
         <v>3.513</v>
       </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
       <c r="E22">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="F22">
-        <v>112</v>
+        <v>250</v>
       </c>
       <c r="G22">
-        <v>0.16</v>
+        <v>112</v>
       </c>
       <c r="H22">
-        <v>0.158</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>0.16</v>
+      </c>
+      <c r="I22">
+        <v>0.158</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23">
         <v>0</v>
       </c>
@@ -983,23 +989,23 @@
       <c r="C23">
         <v>1.5136</v>
       </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
       <c r="E23">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="F23">
-        <v>112</v>
+        <v>250</v>
       </c>
       <c r="G23">
-        <v>0.16</v>
+        <v>112</v>
       </c>
       <c r="H23">
-        <v>0.158</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>0.16</v>
+      </c>
+      <c r="I23">
+        <v>0.158</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24">
         <v>2</v>
       </c>
@@ -1009,23 +1015,23 @@
       <c r="C24">
         <v>-2.9582</v>
       </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
       <c r="E24">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="F24">
-        <v>112</v>
+        <v>250</v>
       </c>
       <c r="G24">
-        <v>0.16</v>
+        <v>112</v>
       </c>
       <c r="H24">
-        <v>0.158</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>0.16</v>
+      </c>
+      <c r="I24">
+        <v>0.158</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25">
         <v>-9</v>
       </c>
@@ -1035,23 +1041,23 @@
       <c r="C25">
         <v>5.7459</v>
       </c>
-      <c r="D25">
-        <v>0</v>
-      </c>
       <c r="E25">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="F25">
-        <v>112</v>
+        <v>250</v>
       </c>
       <c r="G25">
-        <v>0.16</v>
+        <v>112</v>
       </c>
       <c r="H25">
-        <v>0.158</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>0.16</v>
+      </c>
+      <c r="I25">
+        <v>0.158</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26">
         <v>-8</v>
       </c>
@@ -1061,23 +1067,23 @@
       <c r="C26">
         <v>6.4625</v>
       </c>
-      <c r="D26">
-        <v>0</v>
-      </c>
       <c r="E26">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="F26">
-        <v>112</v>
+        <v>250</v>
       </c>
       <c r="G26">
-        <v>0.16</v>
+        <v>112</v>
       </c>
       <c r="H26">
-        <v>0.158</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>0.16</v>
+      </c>
+      <c r="I26">
+        <v>0.158</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27">
         <v>-7</v>
       </c>
@@ -1087,23 +1093,23 @@
       <c r="C27">
         <v>7.0153</v>
       </c>
-      <c r="D27">
-        <v>0</v>
-      </c>
       <c r="E27">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="F27">
-        <v>112</v>
+        <v>250</v>
       </c>
       <c r="G27">
-        <v>0.16</v>
+        <v>112</v>
       </c>
       <c r="H27">
-        <v>0.158</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>0.16</v>
+      </c>
+      <c r="I27">
+        <v>0.158</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28">
         <v>-5</v>
       </c>
@@ -1113,23 +1119,23 @@
       <c r="C28">
         <v>7.5551</v>
       </c>
-      <c r="D28">
-        <v>0</v>
-      </c>
       <c r="E28">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="F28">
-        <v>112</v>
+        <v>250</v>
       </c>
       <c r="G28">
-        <v>0.16</v>
+        <v>112</v>
       </c>
       <c r="H28">
-        <v>0.158</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>0.16</v>
+      </c>
+      <c r="I28">
+        <v>0.158</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29">
         <v>-4</v>
       </c>
@@ -1139,23 +1145,23 @@
       <c r="C29">
         <v>7.4258</v>
       </c>
-      <c r="D29">
-        <v>0</v>
-      </c>
       <c r="E29">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="F29">
-        <v>112</v>
+        <v>250</v>
       </c>
       <c r="G29">
-        <v>0.16</v>
+        <v>112</v>
       </c>
       <c r="H29">
-        <v>0.158</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>0.16</v>
+      </c>
+      <c r="I29">
+        <v>0.158</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30">
         <v>-3</v>
       </c>
@@ -1165,23 +1171,23 @@
       <c r="C30">
         <v>6.7185</v>
       </c>
-      <c r="D30">
-        <v>0</v>
-      </c>
       <c r="E30">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="F30">
-        <v>112</v>
+        <v>250</v>
       </c>
       <c r="G30">
-        <v>0.16</v>
+        <v>112</v>
       </c>
       <c r="H30">
-        <v>0.158</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>0.16</v>
+      </c>
+      <c r="I30">
+        <v>0.158</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31">
         <v>0</v>
       </c>
@@ -1191,23 +1197,23 @@
       <c r="C31">
         <v>2.6832</v>
       </c>
-      <c r="D31">
-        <v>0</v>
-      </c>
       <c r="E31">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="F31">
-        <v>112</v>
+        <v>250</v>
       </c>
       <c r="G31">
-        <v>0.16</v>
+        <v>112</v>
       </c>
       <c r="H31">
-        <v>0.158</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>0.16</v>
+      </c>
+      <c r="I31">
+        <v>0.158</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32">
         <v>2</v>
       </c>
@@ -1217,23 +1223,23 @@
       <c r="C32">
         <v>-2.0947</v>
       </c>
-      <c r="D32">
-        <v>0</v>
-      </c>
       <c r="E32">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="F32">
-        <v>112</v>
+        <v>250</v>
       </c>
       <c r="G32">
-        <v>0.16</v>
+        <v>112</v>
       </c>
       <c r="H32">
-        <v>0.158</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>0.16</v>
+      </c>
+      <c r="I32">
+        <v>0.158</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33">
         <v>-9</v>
       </c>
@@ -1243,23 +1249,23 @@
       <c r="C33">
         <v>5.662000000000001</v>
       </c>
-      <c r="D33">
-        <v>0</v>
-      </c>
       <c r="E33">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="F33">
-        <v>112</v>
+        <v>250</v>
       </c>
       <c r="G33">
-        <v>0.16</v>
+        <v>112</v>
       </c>
       <c r="H33">
-        <v>0.158</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>0.16</v>
+      </c>
+      <c r="I33">
+        <v>0.158</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34">
         <v>-8</v>
       </c>
@@ -1269,23 +1275,23 @@
       <c r="C34">
         <v>6.3295</v>
       </c>
-      <c r="D34">
-        <v>0</v>
-      </c>
       <c r="E34">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="F34">
-        <v>112</v>
+        <v>250</v>
       </c>
       <c r="G34">
-        <v>0.16</v>
+        <v>112</v>
       </c>
       <c r="H34">
-        <v>0.158</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>0.16</v>
+      </c>
+      <c r="I34">
+        <v>0.158</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35">
         <v>-6</v>
       </c>
@@ -1295,23 +1301,23 @@
       <c r="C35">
         <v>7.3576</v>
       </c>
-      <c r="D35">
-        <v>0</v>
-      </c>
       <c r="E35">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="F35">
-        <v>112</v>
+        <v>250</v>
       </c>
       <c r="G35">
-        <v>0.16</v>
+        <v>112</v>
       </c>
       <c r="H35">
-        <v>0.158</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>0.16</v>
+      </c>
+      <c r="I35">
+        <v>0.158</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36">
         <v>-5</v>
       </c>
@@ -1321,23 +1327,23 @@
       <c r="C36">
         <v>7.511</v>
       </c>
-      <c r="D36">
-        <v>0</v>
-      </c>
       <c r="E36">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="F36">
-        <v>112</v>
+        <v>250</v>
       </c>
       <c r="G36">
-        <v>0.16</v>
+        <v>112</v>
       </c>
       <c r="H36">
-        <v>0.158</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>0.16</v>
+      </c>
+      <c r="I36">
+        <v>0.158</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37">
         <v>-4</v>
       </c>
@@ -1347,23 +1353,23 @@
       <c r="C37">
         <v>7.4132</v>
       </c>
-      <c r="D37">
-        <v>0</v>
-      </c>
       <c r="E37">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="F37">
-        <v>112</v>
+        <v>250</v>
       </c>
       <c r="G37">
-        <v>0.16</v>
+        <v>112</v>
       </c>
       <c r="H37">
-        <v>0.158</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>0.16</v>
+      </c>
+      <c r="I37">
+        <v>0.158</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38">
         <v>-2</v>
       </c>
@@ -1373,23 +1379,23 @@
       <c r="C38">
         <v>6.1793</v>
       </c>
-      <c r="D38">
-        <v>0</v>
-      </c>
       <c r="E38">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="F38">
-        <v>112</v>
+        <v>250</v>
       </c>
       <c r="G38">
-        <v>0.16</v>
+        <v>112</v>
       </c>
       <c r="H38">
-        <v>0.158</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>0.16</v>
+      </c>
+      <c r="I38">
+        <v>0.158</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39">
         <v>-1</v>
       </c>
@@ -1399,23 +1405,23 @@
       <c r="C39">
         <v>5.1205</v>
       </c>
-      <c r="D39">
-        <v>0</v>
-      </c>
       <c r="E39">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="F39">
-        <v>112</v>
+        <v>250</v>
       </c>
       <c r="G39">
-        <v>0.16</v>
+        <v>112</v>
       </c>
       <c r="H39">
-        <v>0.158</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>0.16</v>
+      </c>
+      <c r="I39">
+        <v>0.158</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40">
         <v>0</v>
       </c>
@@ -1425,23 +1431,23 @@
       <c r="C40">
         <v>2.5109</v>
       </c>
-      <c r="D40">
-        <v>0</v>
-      </c>
       <c r="E40">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="F40">
-        <v>112</v>
+        <v>250</v>
       </c>
       <c r="G40">
-        <v>0.16</v>
+        <v>112</v>
       </c>
       <c r="H40">
-        <v>0.158</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>0.16</v>
+      </c>
+      <c r="I40">
+        <v>0.158</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41">
         <v>1</v>
       </c>
@@ -1451,23 +1457,23 @@
       <c r="C41">
         <v>1.6645</v>
       </c>
-      <c r="D41">
-        <v>0</v>
-      </c>
       <c r="E41">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="F41">
-        <v>112</v>
+        <v>250</v>
       </c>
       <c r="G41">
-        <v>0.16</v>
+        <v>112</v>
       </c>
       <c r="H41">
-        <v>0.158</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>0.16</v>
+      </c>
+      <c r="I41">
+        <v>0.158</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42">
         <v>2</v>
       </c>
@@ -1477,23 +1483,23 @@
       <c r="C42">
         <v>0.26537</v>
       </c>
-      <c r="D42">
-        <v>0</v>
-      </c>
       <c r="E42">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="F42">
-        <v>112</v>
+        <v>250</v>
       </c>
       <c r="G42">
-        <v>0.16</v>
+        <v>112</v>
       </c>
       <c r="H42">
-        <v>0.158</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>0.16</v>
+      </c>
+      <c r="I42">
+        <v>0.158</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43">
         <v>-9</v>
       </c>
@@ -1503,23 +1509,23 @@
       <c r="C43">
         <v>5.5698</v>
       </c>
-      <c r="D43">
-        <v>0</v>
-      </c>
       <c r="E43">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="F43">
-        <v>112</v>
+        <v>250</v>
       </c>
       <c r="G43">
-        <v>0.16</v>
+        <v>112</v>
       </c>
       <c r="H43">
-        <v>0.158</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>0.16</v>
+      </c>
+      <c r="I43">
+        <v>0.158</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44">
         <v>-7</v>
       </c>
@@ -1529,23 +1535,23 @@
       <c r="C44">
         <v>6.8235</v>
       </c>
-      <c r="D44">
-        <v>0</v>
-      </c>
       <c r="E44">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="F44">
-        <v>112</v>
+        <v>250</v>
       </c>
       <c r="G44">
-        <v>0.16</v>
+        <v>112</v>
       </c>
       <c r="H44">
-        <v>0.158</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>0.16</v>
+      </c>
+      <c r="I44">
+        <v>0.158</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45">
         <v>-6</v>
       </c>
@@ -1555,23 +1561,23 @@
       <c r="C45">
         <v>7.1429</v>
       </c>
-      <c r="D45">
-        <v>0</v>
-      </c>
       <c r="E45">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="F45">
-        <v>112</v>
+        <v>250</v>
       </c>
       <c r="G45">
-        <v>0.16</v>
+        <v>112</v>
       </c>
       <c r="H45">
-        <v>0.158</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>0.16</v>
+      </c>
+      <c r="I45">
+        <v>0.158</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46">
         <v>-5</v>
       </c>
@@ -1581,23 +1587,23 @@
       <c r="C46">
         <v>7.4212</v>
       </c>
-      <c r="D46">
-        <v>0</v>
-      </c>
       <c r="E46">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="F46">
-        <v>112</v>
+        <v>250</v>
       </c>
       <c r="G46">
-        <v>0.16</v>
+        <v>112</v>
       </c>
       <c r="H46">
-        <v>0.158</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>0.16</v>
+      </c>
+      <c r="I46">
+        <v>0.158</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47">
         <v>-3</v>
       </c>
@@ -1607,23 +1613,23 @@
       <c r="C47">
         <v>6.9899</v>
       </c>
-      <c r="D47">
-        <v>0</v>
-      </c>
       <c r="E47">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="F47">
-        <v>112</v>
+        <v>250</v>
       </c>
       <c r="G47">
-        <v>0.16</v>
+        <v>112</v>
       </c>
       <c r="H47">
-        <v>0.158</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>0.16</v>
+      </c>
+      <c r="I47">
+        <v>0.158</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48">
         <v>-1</v>
       </c>
@@ -1633,23 +1639,23 @@
       <c r="C48">
         <v>5.593999999999999</v>
       </c>
-      <c r="D48">
-        <v>0</v>
-      </c>
       <c r="E48">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="F48">
-        <v>112</v>
+        <v>250</v>
       </c>
       <c r="G48">
-        <v>0.16</v>
+        <v>112</v>
       </c>
       <c r="H48">
-        <v>0.158</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>0.16</v>
+      </c>
+      <c r="I48">
+        <v>0.158</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49">
         <v>0</v>
       </c>
@@ -1659,23 +1665,23 @@
       <c r="C49">
         <v>2.0474</v>
       </c>
-      <c r="D49">
-        <v>0</v>
-      </c>
       <c r="E49">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="F49">
-        <v>112</v>
+        <v>250</v>
       </c>
       <c r="G49">
-        <v>0.16</v>
+        <v>112</v>
       </c>
       <c r="H49">
-        <v>0.158</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>0.16</v>
+      </c>
+      <c r="I49">
+        <v>0.158</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50">
         <v>1</v>
       </c>
@@ -1685,23 +1691,23 @@
       <c r="C50">
         <v>1.4931</v>
       </c>
-      <c r="D50">
-        <v>0</v>
-      </c>
       <c r="E50">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="F50">
-        <v>112</v>
+        <v>250</v>
       </c>
       <c r="G50">
-        <v>0.16</v>
+        <v>112</v>
       </c>
       <c r="H50">
-        <v>0.158</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>0.16</v>
+      </c>
+      <c r="I50">
+        <v>0.158</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51">
         <v>2</v>
       </c>
@@ -1711,23 +1717,23 @@
       <c r="C51">
         <v>0.22548</v>
       </c>
-      <c r="D51">
-        <v>0</v>
-      </c>
       <c r="E51">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="F51">
-        <v>112</v>
+        <v>250</v>
       </c>
       <c r="G51">
-        <v>0.16</v>
+        <v>112</v>
       </c>
       <c r="H51">
-        <v>0.158</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>0.16</v>
+      </c>
+      <c r="I51">
+        <v>0.158</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52">
         <v>-9</v>
       </c>
@@ -1737,23 +1743,23 @@
       <c r="C52">
         <v>5.462999999999999</v>
       </c>
-      <c r="D52">
-        <v>0</v>
-      </c>
       <c r="E52">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="F52">
-        <v>112</v>
+        <v>250</v>
       </c>
       <c r="G52">
-        <v>0.16</v>
+        <v>112</v>
       </c>
       <c r="H52">
-        <v>0.158</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>0.16</v>
+      </c>
+      <c r="I52">
+        <v>0.158</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53">
         <v>-8</v>
       </c>
@@ -1763,23 +1769,23 @@
       <c r="C53">
         <v>6.051</v>
       </c>
-      <c r="D53">
-        <v>0</v>
-      </c>
       <c r="E53">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="F53">
-        <v>112</v>
+        <v>250</v>
       </c>
       <c r="G53">
-        <v>0.16</v>
+        <v>112</v>
       </c>
       <c r="H53">
-        <v>0.158</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>0.16</v>
+      </c>
+      <c r="I53">
+        <v>0.158</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54">
         <v>-7</v>
       </c>
@@ -1789,23 +1795,23 @@
       <c r="C54">
         <v>6.6362</v>
       </c>
-      <c r="D54">
-        <v>0</v>
-      </c>
       <c r="E54">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="F54">
-        <v>112</v>
+        <v>250</v>
       </c>
       <c r="G54">
-        <v>0.16</v>
+        <v>112</v>
       </c>
       <c r="H54">
-        <v>0.158</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>0.16</v>
+      </c>
+      <c r="I54">
+        <v>0.158</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55">
         <v>-6</v>
       </c>
@@ -1815,23 +1821,23 @@
       <c r="C55">
         <v>7.0248</v>
       </c>
-      <c r="D55">
-        <v>0</v>
-      </c>
       <c r="E55">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="F55">
-        <v>112</v>
+        <v>250</v>
       </c>
       <c r="G55">
-        <v>0.16</v>
+        <v>112</v>
       </c>
       <c r="H55">
-        <v>0.158</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>0.16</v>
+      </c>
+      <c r="I55">
+        <v>0.158</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56">
         <v>-5</v>
       </c>
@@ -1841,23 +1847,23 @@
       <c r="C56">
         <v>7.3711</v>
       </c>
-      <c r="D56">
-        <v>0</v>
-      </c>
       <c r="E56">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="F56">
-        <v>112</v>
+        <v>250</v>
       </c>
       <c r="G56">
-        <v>0.16</v>
+        <v>112</v>
       </c>
       <c r="H56">
-        <v>0.158</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>0.16</v>
+      </c>
+      <c r="I56">
+        <v>0.158</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57">
         <v>-4</v>
       </c>
@@ -1867,23 +1873,23 @@
       <c r="C57">
         <v>7.481</v>
       </c>
-      <c r="D57">
-        <v>0</v>
-      </c>
       <c r="E57">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="F57">
-        <v>112</v>
+        <v>250</v>
       </c>
       <c r="G57">
-        <v>0.16</v>
+        <v>112</v>
       </c>
       <c r="H57">
-        <v>0.158</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>0.16</v>
+      </c>
+      <c r="I57">
+        <v>0.158</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58">
         <v>-3</v>
       </c>
@@ -1893,23 +1899,23 @@
       <c r="C58">
         <v>7.1329</v>
       </c>
-      <c r="D58">
-        <v>0</v>
-      </c>
       <c r="E58">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="F58">
-        <v>112</v>
+        <v>250</v>
       </c>
       <c r="G58">
-        <v>0.16</v>
+        <v>112</v>
       </c>
       <c r="H58">
-        <v>0.158</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>0.16</v>
+      </c>
+      <c r="I58">
+        <v>0.158</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59">
         <v>-2</v>
       </c>
@@ -1919,23 +1925,23 @@
       <c r="C59">
         <v>6.6092</v>
       </c>
-      <c r="D59">
-        <v>0</v>
-      </c>
       <c r="E59">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="F59">
-        <v>112</v>
+        <v>250</v>
       </c>
       <c r="G59">
-        <v>0.16</v>
+        <v>112</v>
       </c>
       <c r="H59">
-        <v>0.158</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>0.16</v>
+      </c>
+      <c r="I59">
+        <v>0.158</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60">
         <v>2</v>
       </c>
@@ -1945,23 +1951,23 @@
       <c r="C60">
         <v>0.52717</v>
       </c>
-      <c r="D60">
-        <v>0</v>
-      </c>
       <c r="E60">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="F60">
-        <v>112</v>
+        <v>250</v>
       </c>
       <c r="G60">
-        <v>0.16</v>
+        <v>112</v>
       </c>
       <c r="H60">
-        <v>0.158</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>0.16</v>
+      </c>
+      <c r="I60">
+        <v>0.158</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61">
         <v>-9</v>
       </c>
@@ -1971,23 +1977,23 @@
       <c r="C61">
         <v>5.4376</v>
       </c>
-      <c r="D61">
-        <v>0</v>
-      </c>
       <c r="E61">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="F61">
-        <v>112</v>
+        <v>250</v>
       </c>
       <c r="G61">
-        <v>0.16</v>
+        <v>112</v>
       </c>
       <c r="H61">
-        <v>0.158</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>0.16</v>
+      </c>
+      <c r="I61">
+        <v>0.158</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62">
         <v>-8</v>
       </c>
@@ -1997,23 +2003,23 @@
       <c r="C62">
         <v>6.0709</v>
       </c>
-      <c r="D62">
-        <v>0</v>
-      </c>
       <c r="E62">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="F62">
-        <v>112</v>
+        <v>250</v>
       </c>
       <c r="G62">
-        <v>0.16</v>
+        <v>112</v>
       </c>
       <c r="H62">
-        <v>0.158</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>0.16</v>
+      </c>
+      <c r="I62">
+        <v>0.158</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63">
         <v>-7</v>
       </c>
@@ -2023,23 +2029,23 @@
       <c r="C63">
         <v>6.4565</v>
       </c>
-      <c r="D63">
-        <v>0</v>
-      </c>
       <c r="E63">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="F63">
-        <v>112</v>
+        <v>250</v>
       </c>
       <c r="G63">
-        <v>0.16</v>
+        <v>112</v>
       </c>
       <c r="H63">
-        <v>0.158</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>0.16</v>
+      </c>
+      <c r="I63">
+        <v>0.158</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64">
         <v>-6</v>
       </c>
@@ -2049,23 +2055,23 @@
       <c r="C64">
         <v>6.9119</v>
       </c>
-      <c r="D64">
-        <v>0</v>
-      </c>
       <c r="E64">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="F64">
-        <v>112</v>
+        <v>250</v>
       </c>
       <c r="G64">
-        <v>0.16</v>
+        <v>112</v>
       </c>
       <c r="H64">
-        <v>0.158</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>0.16</v>
+      </c>
+      <c r="I64">
+        <v>0.158</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65">
         <v>-5</v>
       </c>
@@ -2075,23 +2081,23 @@
       <c r="C65">
         <v>7.2532</v>
       </c>
-      <c r="D65">
-        <v>0</v>
-      </c>
       <c r="E65">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="F65">
-        <v>112</v>
+        <v>250</v>
       </c>
       <c r="G65">
-        <v>0.16</v>
+        <v>112</v>
       </c>
       <c r="H65">
-        <v>0.158</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>0.16</v>
+      </c>
+      <c r="I65">
+        <v>0.158</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66">
         <v>-2</v>
       </c>
@@ -2101,23 +2107,23 @@
       <c r="C66">
         <v>6.8209</v>
       </c>
-      <c r="D66">
-        <v>0</v>
-      </c>
       <c r="E66">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="F66">
-        <v>112</v>
+        <v>250</v>
       </c>
       <c r="G66">
-        <v>0.16</v>
+        <v>112</v>
       </c>
       <c r="H66">
-        <v>0.158</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>0.16</v>
+      </c>
+      <c r="I66">
+        <v>0.158</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67">
         <v>0</v>
       </c>
@@ -2127,23 +2133,23 @@
       <c r="C67">
         <v>4.6342</v>
       </c>
-      <c r="D67">
-        <v>0</v>
-      </c>
       <c r="E67">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="F67">
-        <v>112</v>
+        <v>250</v>
       </c>
       <c r="G67">
-        <v>0.16</v>
+        <v>112</v>
       </c>
       <c r="H67">
-        <v>0.158</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>0.16</v>
+      </c>
+      <c r="I67">
+        <v>0.158</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68">
         <v>1</v>
       </c>
@@ -2153,23 +2159,23 @@
       <c r="C68">
         <v>3.2801</v>
       </c>
-      <c r="D68">
-        <v>0</v>
-      </c>
       <c r="E68">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="F68">
-        <v>112</v>
+        <v>250</v>
       </c>
       <c r="G68">
-        <v>0.16</v>
+        <v>112</v>
       </c>
       <c r="H68">
-        <v>0.158</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>0.16</v>
+      </c>
+      <c r="I68">
+        <v>0.158</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69">
         <v>2</v>
       </c>
@@ -2179,23 +2185,23 @@
       <c r="C69">
         <v>0.92884</v>
       </c>
-      <c r="D69">
-        <v>0</v>
-      </c>
       <c r="E69">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="F69">
-        <v>112</v>
+        <v>250</v>
       </c>
       <c r="G69">
-        <v>0.16</v>
+        <v>112</v>
       </c>
       <c r="H69">
-        <v>0.158</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>0.16</v>
+      </c>
+      <c r="I69">
+        <v>0.158</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70">
         <v>-9</v>
       </c>
@@ -2205,23 +2211,23 @@
       <c r="C70">
         <v>5.3558</v>
       </c>
-      <c r="D70">
-        <v>0</v>
-      </c>
       <c r="E70">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="F70">
-        <v>112</v>
+        <v>250</v>
       </c>
       <c r="G70">
-        <v>0.16</v>
+        <v>112</v>
       </c>
       <c r="H70">
-        <v>0.158</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>0.16</v>
+      </c>
+      <c r="I70">
+        <v>0.158</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71">
         <v>-8</v>
       </c>
@@ -2231,23 +2237,23 @@
       <c r="C71">
         <v>5.8596</v>
       </c>
-      <c r="D71">
-        <v>0</v>
-      </c>
       <c r="E71">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="F71">
-        <v>112</v>
+        <v>250</v>
       </c>
       <c r="G71">
-        <v>0.16</v>
+        <v>112</v>
       </c>
       <c r="H71">
-        <v>0.158</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>0.16</v>
+      </c>
+      <c r="I71">
+        <v>0.158</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72">
         <v>-7</v>
       </c>
@@ -2257,23 +2263,23 @@
       <c r="C72">
         <v>6.332999999999999</v>
       </c>
-      <c r="D72">
-        <v>0</v>
-      </c>
       <c r="E72">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="F72">
-        <v>112</v>
+        <v>250</v>
       </c>
       <c r="G72">
-        <v>0.16</v>
+        <v>112</v>
       </c>
       <c r="H72">
-        <v>0.158</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>0.16</v>
+      </c>
+      <c r="I72">
+        <v>0.158</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73">
         <v>-4</v>
       </c>
@@ -2283,23 +2289,23 @@
       <c r="C73">
         <v>7.3487</v>
       </c>
-      <c r="D73">
-        <v>0</v>
-      </c>
       <c r="E73">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="F73">
-        <v>112</v>
+        <v>250</v>
       </c>
       <c r="G73">
-        <v>0.16</v>
+        <v>112</v>
       </c>
       <c r="H73">
-        <v>0.158</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>0.16</v>
+      </c>
+      <c r="I73">
+        <v>0.158</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74">
         <v>0</v>
       </c>
@@ -2309,23 +2315,23 @@
       <c r="C74">
         <v>4.7963</v>
       </c>
-      <c r="D74">
-        <v>0</v>
-      </c>
       <c r="E74">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="F74">
-        <v>112</v>
+        <v>250</v>
       </c>
       <c r="G74">
-        <v>0.16</v>
+        <v>112</v>
       </c>
       <c r="H74">
-        <v>0.158</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>0.16</v>
+      </c>
+      <c r="I74">
+        <v>0.158</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75">
         <v>1</v>
       </c>
@@ -2335,23 +2341,23 @@
       <c r="C75">
         <v>4.3512</v>
       </c>
-      <c r="D75">
-        <v>0</v>
-      </c>
       <c r="E75">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="F75">
-        <v>112</v>
+        <v>250</v>
       </c>
       <c r="G75">
-        <v>0.16</v>
+        <v>112</v>
       </c>
       <c r="H75">
-        <v>0.158</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>0.16</v>
+      </c>
+      <c r="I75">
+        <v>0.158</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76">
         <v>-9</v>
       </c>
@@ -2361,23 +2367,23 @@
       <c r="C76">
         <v>5.3068</v>
       </c>
-      <c r="D76">
-        <v>0</v>
-      </c>
       <c r="E76">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="F76">
-        <v>112</v>
+        <v>250</v>
       </c>
       <c r="G76">
-        <v>0.16</v>
+        <v>112</v>
       </c>
       <c r="H76">
-        <v>0.158</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>0.16</v>
+      </c>
+      <c r="I76">
+        <v>0.158</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77">
         <v>-7</v>
       </c>
@@ -2387,23 +2393,23 @@
       <c r="C77">
         <v>6.2527</v>
       </c>
-      <c r="D77">
-        <v>0</v>
-      </c>
       <c r="E77">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="F77">
-        <v>112</v>
+        <v>250</v>
       </c>
       <c r="G77">
-        <v>0.16</v>
+        <v>112</v>
       </c>
       <c r="H77">
-        <v>0.158</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>0.16</v>
+      </c>
+      <c r="I77">
+        <v>0.158</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78">
         <v>-6</v>
       </c>
@@ -2413,23 +2419,23 @@
       <c r="C78">
         <v>6.697</v>
       </c>
-      <c r="D78">
-        <v>0</v>
-      </c>
       <c r="E78">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="F78">
-        <v>112</v>
+        <v>250</v>
       </c>
       <c r="G78">
-        <v>0.16</v>
+        <v>112</v>
       </c>
       <c r="H78">
-        <v>0.158</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>0.16</v>
+      </c>
+      <c r="I78">
+        <v>0.158</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79">
         <v>-4</v>
       </c>
@@ -2439,23 +2445,23 @@
       <c r="C79">
         <v>7.1845</v>
       </c>
-      <c r="D79">
-        <v>0</v>
-      </c>
       <c r="E79">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="F79">
-        <v>112</v>
+        <v>250</v>
       </c>
       <c r="G79">
-        <v>0.16</v>
+        <v>112</v>
       </c>
       <c r="H79">
-        <v>0.158</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>0.16</v>
+      </c>
+      <c r="I79">
+        <v>0.158</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80">
         <v>-3</v>
       </c>
@@ -2465,23 +2471,23 @@
       <c r="C80">
         <v>7.341</v>
       </c>
-      <c r="D80">
-        <v>0</v>
-      </c>
       <c r="E80">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="F80">
-        <v>112</v>
+        <v>250</v>
       </c>
       <c r="G80">
-        <v>0.16</v>
+        <v>112</v>
       </c>
       <c r="H80">
-        <v>0.158</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>0.16</v>
+      </c>
+      <c r="I80">
+        <v>0.158</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81">
         <v>-2</v>
       </c>
@@ -2491,23 +2497,23 @@
       <c r="C81">
         <v>6.9065</v>
       </c>
-      <c r="D81">
-        <v>0</v>
-      </c>
       <c r="E81">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="F81">
-        <v>112</v>
+        <v>250</v>
       </c>
       <c r="G81">
-        <v>0.16</v>
+        <v>112</v>
       </c>
       <c r="H81">
-        <v>0.158</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>0.16</v>
+      </c>
+      <c r="I81">
+        <v>0.158</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82">
         <v>0</v>
       </c>
@@ -2517,23 +2523,23 @@
       <c r="C82">
         <v>5.4875</v>
       </c>
-      <c r="D82">
-        <v>0</v>
-      </c>
       <c r="E82">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="F82">
-        <v>112</v>
+        <v>250</v>
       </c>
       <c r="G82">
-        <v>0.16</v>
+        <v>112</v>
       </c>
       <c r="H82">
-        <v>0.158</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>0.16</v>
+      </c>
+      <c r="I82">
+        <v>0.158</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83">
         <v>-9</v>
       </c>
@@ -2543,23 +2549,23 @@
       <c r="C83">
         <v>5.2001</v>
       </c>
-      <c r="D83">
-        <v>0</v>
-      </c>
       <c r="E83">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="F83">
-        <v>112</v>
+        <v>250</v>
       </c>
       <c r="G83">
-        <v>0.16</v>
+        <v>112</v>
       </c>
       <c r="H83">
-        <v>0.158</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>0.16</v>
+      </c>
+      <c r="I83">
+        <v>0.158</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84">
         <v>-5</v>
       </c>
@@ -2569,23 +2575,23 @@
       <c r="C84">
         <v>6.8664</v>
       </c>
-      <c r="D84">
-        <v>0</v>
-      </c>
       <c r="E84">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="F84">
-        <v>112</v>
+        <v>250</v>
       </c>
       <c r="G84">
-        <v>0.16</v>
+        <v>112</v>
       </c>
       <c r="H84">
-        <v>0.158</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>0.16</v>
+      </c>
+      <c r="I84">
+        <v>0.158</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85">
         <v>-4</v>
       </c>
@@ -2595,23 +2601,23 @@
       <c r="C85">
         <v>7.2248</v>
       </c>
-      <c r="D85">
-        <v>0</v>
-      </c>
       <c r="E85">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="F85">
-        <v>112</v>
+        <v>250</v>
       </c>
       <c r="G85">
-        <v>0.16</v>
+        <v>112</v>
       </c>
       <c r="H85">
-        <v>0.158</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>0.16</v>
+      </c>
+      <c r="I85">
+        <v>0.158</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86">
         <v>-3</v>
       </c>
@@ -2621,23 +2627,23 @@
       <c r="C86">
         <v>7.2522</v>
       </c>
-      <c r="D86">
-        <v>0</v>
-      </c>
       <c r="E86">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="F86">
-        <v>112</v>
+        <v>250</v>
       </c>
       <c r="G86">
-        <v>0.16</v>
+        <v>112</v>
       </c>
       <c r="H86">
-        <v>0.158</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>0.16</v>
+      </c>
+      <c r="I86">
+        <v>0.158</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87">
         <v>1</v>
       </c>
@@ -2647,23 +2653,23 @@
       <c r="C87">
         <v>4.258</v>
       </c>
-      <c r="D87">
-        <v>0</v>
-      </c>
       <c r="E87">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="F87">
-        <v>112</v>
+        <v>250</v>
       </c>
       <c r="G87">
-        <v>0.16</v>
+        <v>112</v>
       </c>
       <c r="H87">
-        <v>0.158</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>0.16</v>
+      </c>
+      <c r="I87">
+        <v>0.158</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88">
         <v>-9</v>
       </c>
@@ -2673,23 +2679,23 @@
       <c r="C88">
         <v>5.0955</v>
       </c>
-      <c r="D88">
-        <v>0</v>
-      </c>
       <c r="E88">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="F88">
-        <v>112</v>
+        <v>250</v>
       </c>
       <c r="G88">
-        <v>0.16</v>
+        <v>112</v>
       </c>
       <c r="H88">
-        <v>0.158</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>0.16</v>
+      </c>
+      <c r="I88">
+        <v>0.158</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89">
         <v>-5</v>
       </c>
@@ -2699,23 +2705,23 @@
       <c r="C89">
         <v>6.6937</v>
       </c>
-      <c r="D89">
-        <v>0</v>
-      </c>
       <c r="E89">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="F89">
-        <v>112</v>
+        <v>250</v>
       </c>
       <c r="G89">
-        <v>0.16</v>
+        <v>112</v>
       </c>
       <c r="H89">
-        <v>0.158</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>0.16</v>
+      </c>
+      <c r="I89">
+        <v>0.158</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90">
         <v>0</v>
       </c>
@@ -2725,23 +2731,23 @@
       <c r="C90">
         <v>6.4291</v>
       </c>
-      <c r="D90">
-        <v>0</v>
-      </c>
       <c r="E90">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="F90">
-        <v>112</v>
+        <v>250</v>
       </c>
       <c r="G90">
-        <v>0.16</v>
+        <v>112</v>
       </c>
       <c r="H90">
-        <v>0.158</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>0.16</v>
+      </c>
+      <c r="I90">
+        <v>0.158</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91">
         <v>1</v>
       </c>
@@ -2751,23 +2757,23 @@
       <c r="C91">
         <v>5.1962</v>
       </c>
-      <c r="D91">
-        <v>0</v>
-      </c>
       <c r="E91">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="F91">
-        <v>112</v>
+        <v>250</v>
       </c>
       <c r="G91">
-        <v>0.16</v>
+        <v>112</v>
       </c>
       <c r="H91">
-        <v>0.158</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>0.16</v>
+      </c>
+      <c r="I91">
+        <v>0.158</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92">
         <v>2</v>
       </c>
@@ -2777,19 +2783,19 @@
       <c r="C92">
         <v>3.4521</v>
       </c>
-      <c r="D92">
-        <v>0</v>
-      </c>
       <c r="E92">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="F92">
-        <v>112</v>
+        <v>250</v>
       </c>
       <c r="G92">
-        <v>0.16</v>
+        <v>112</v>
       </c>
       <c r="H92">
+        <v>0.16</v>
+      </c>
+      <c r="I92">
         <v>0.158</v>
       </c>
     </row>

--- a/series_02/mpi_0/span_020/qsmf_output.xlsx
+++ b/series_02/mpi_0/span_020/qsmf_output.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="compensation_0" sheetId="1" r:id="rId1"/>
+    <sheet name="span_10" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -19,10 +19,10 @@
     <t>Laser Power (dBm)</t>
   </si>
   <si>
-    <t>Length of Segment 1 (Km)</t>
+    <t>Q (dB)</t>
   </si>
   <si>
-    <t>Q (dB)</t>
+    <t>Length of Segment 1 (km)</t>
   </si>
   <si>
     <t>Span (km)</t>
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I92"/>
+  <dimension ref="A1:I133"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -438,10 +438,13 @@
         <v>-9</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>5.7534</v>
       </c>
       <c r="C2">
-        <v>5.7534</v>
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>20</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -464,10 +467,13 @@
         <v>-8</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>6.5405</v>
       </c>
       <c r="C3">
-        <v>6.5405</v>
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>20</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -490,10 +496,13 @@
         <v>-7</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>7.159</v>
       </c>
       <c r="C4">
-        <v>7.159</v>
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>20</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -516,10 +525,13 @@
         <v>-6</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>7.3745</v>
       </c>
       <c r="C5">
-        <v>7.3745</v>
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>20</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -542,10 +554,13 @@
         <v>-5</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>7.282</v>
       </c>
       <c r="C6">
-        <v>7.282</v>
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>20</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -568,10 +583,13 @@
         <v>-4</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>6.2783</v>
       </c>
       <c r="C7">
-        <v>6.2783</v>
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>20</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -594,10 +612,13 @@
         <v>-3</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>6.1361</v>
       </c>
       <c r="C8">
-        <v>6.1361</v>
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>20</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -620,10 +641,13 @@
         <v>-2</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>5.2814</v>
       </c>
       <c r="C9">
-        <v>5.2814</v>
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>20</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -646,10 +670,13 @@
         <v>-1</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>2.7167</v>
       </c>
       <c r="C10">
-        <v>2.7167</v>
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>20</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -664,7 +691,7 @@
         <v>0.16</v>
       </c>
       <c r="I10">
-        <v>0.158</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -672,10 +699,13 @@
         <v>0</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>0.5484600000000001</v>
       </c>
       <c r="C11">
-        <v>0.5484600000000001</v>
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>20</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -698,10 +728,13 @@
         <v>1</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>-0.4835100000000001</v>
       </c>
       <c r="C12">
-        <v>-0.4835100000000001</v>
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>20</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -724,10 +757,13 @@
         <v>2</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>-2.7094</v>
       </c>
       <c r="C13">
-        <v>-2.7094</v>
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>20</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -750,10 +786,13 @@
         <v>-9</v>
       </c>
       <c r="B14">
+        <v>5.7709</v>
+      </c>
+      <c r="C14">
         <v>2</v>
       </c>
-      <c r="C14">
-        <v>5.7709</v>
+      <c r="D14">
+        <v>20</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -776,10 +815,13 @@
         <v>-8</v>
       </c>
       <c r="B15">
+        <v>6.5213</v>
+      </c>
+      <c r="C15">
         <v>2</v>
       </c>
-      <c r="C15">
-        <v>6.5213</v>
+      <c r="D15">
+        <v>20</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -802,10 +844,13 @@
         <v>-7</v>
       </c>
       <c r="B16">
+        <v>7.0933</v>
+      </c>
+      <c r="C16">
         <v>2</v>
       </c>
-      <c r="C16">
-        <v>7.0933</v>
+      <c r="D16">
+        <v>20</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -828,10 +873,13 @@
         <v>-6</v>
       </c>
       <c r="B17">
+        <v>7.5391</v>
+      </c>
+      <c r="C17">
         <v>2</v>
       </c>
-      <c r="C17">
-        <v>7.5391</v>
+      <c r="D17">
+        <v>20</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -854,10 +902,13 @@
         <v>-5</v>
       </c>
       <c r="B18">
+        <v>7.4727</v>
+      </c>
+      <c r="C18">
         <v>2</v>
       </c>
-      <c r="C18">
-        <v>7.4727</v>
+      <c r="D18">
+        <v>20</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -880,10 +931,13 @@
         <v>-4</v>
       </c>
       <c r="B19">
+        <v>7.1947</v>
+      </c>
+      <c r="C19">
         <v>2</v>
       </c>
-      <c r="C19">
-        <v>7.1947</v>
+      <c r="D19">
+        <v>20</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -906,10 +960,13 @@
         <v>-3</v>
       </c>
       <c r="B20">
+        <v>6.606</v>
+      </c>
+      <c r="C20">
         <v>2</v>
       </c>
-      <c r="C20">
-        <v>6.606</v>
+      <c r="D20">
+        <v>20</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -932,10 +989,13 @@
         <v>-2</v>
       </c>
       <c r="B21">
+        <v>5.2915</v>
+      </c>
+      <c r="C21">
         <v>2</v>
       </c>
-      <c r="C21">
-        <v>5.2915</v>
+      <c r="D21">
+        <v>20</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -958,10 +1018,13 @@
         <v>-1</v>
       </c>
       <c r="B22">
+        <v>3.513</v>
+      </c>
+      <c r="C22">
         <v>2</v>
       </c>
-      <c r="C22">
-        <v>3.513</v>
+      <c r="D22">
+        <v>20</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -984,10 +1047,13 @@
         <v>0</v>
       </c>
       <c r="B23">
+        <v>1.5136</v>
+      </c>
+      <c r="C23">
         <v>2</v>
       </c>
-      <c r="C23">
-        <v>1.5136</v>
+      <c r="D23">
+        <v>20</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1007,13 +1073,16 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24">
+        <v>1</v>
+      </c>
+      <c r="B24">
+        <v>0.68488</v>
+      </c>
+      <c r="C24">
         <v>2</v>
       </c>
-      <c r="B24">
-        <v>2</v>
-      </c>
-      <c r="C24">
-        <v>-2.9582</v>
+      <c r="D24">
+        <v>20</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1033,13 +1102,16 @@
     </row>
     <row r="25" spans="1:9">
       <c r="A25">
-        <v>-9</v>
+        <v>2</v>
       </c>
       <c r="B25">
-        <v>4</v>
+        <v>-2.9582</v>
       </c>
       <c r="C25">
-        <v>5.7459</v>
+        <v>2</v>
+      </c>
+      <c r="D25">
+        <v>20</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1059,13 +1131,16 @@
     </row>
     <row r="26" spans="1:9">
       <c r="A26">
-        <v>-8</v>
+        <v>-9</v>
       </c>
       <c r="B26">
+        <v>5.7459</v>
+      </c>
+      <c r="C26">
         <v>4</v>
       </c>
-      <c r="C26">
-        <v>6.4625</v>
+      <c r="D26">
+        <v>20</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1085,13 +1160,16 @@
     </row>
     <row r="27" spans="1:9">
       <c r="A27">
-        <v>-7</v>
+        <v>-8</v>
       </c>
       <c r="B27">
+        <v>6.4625</v>
+      </c>
+      <c r="C27">
         <v>4</v>
       </c>
-      <c r="C27">
-        <v>7.0153</v>
+      <c r="D27">
+        <v>20</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1111,13 +1189,16 @@
     </row>
     <row r="28" spans="1:9">
       <c r="A28">
-        <v>-5</v>
+        <v>-7</v>
       </c>
       <c r="B28">
+        <v>7.0153</v>
+      </c>
+      <c r="C28">
         <v>4</v>
       </c>
-      <c r="C28">
-        <v>7.5551</v>
+      <c r="D28">
+        <v>20</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1137,13 +1218,16 @@
     </row>
     <row r="29" spans="1:9">
       <c r="A29">
-        <v>-4</v>
+        <v>-6</v>
       </c>
       <c r="B29">
+        <v>7.4491</v>
+      </c>
+      <c r="C29">
         <v>4</v>
       </c>
-      <c r="C29">
-        <v>7.4258</v>
+      <c r="D29">
+        <v>20</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1163,13 +1247,16 @@
     </row>
     <row r="30" spans="1:9">
       <c r="A30">
-        <v>-3</v>
+        <v>-5</v>
       </c>
       <c r="B30">
+        <v>7.5551</v>
+      </c>
+      <c r="C30">
         <v>4</v>
       </c>
-      <c r="C30">
-        <v>6.7185</v>
+      <c r="D30">
+        <v>20</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1189,13 +1276,16 @@
     </row>
     <row r="31" spans="1:9">
       <c r="A31">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="B31">
+        <v>7.4258</v>
+      </c>
+      <c r="C31">
         <v>4</v>
       </c>
-      <c r="C31">
-        <v>2.6832</v>
+      <c r="D31">
+        <v>20</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -1215,13 +1305,16 @@
     </row>
     <row r="32" spans="1:9">
       <c r="A32">
-        <v>2</v>
+        <v>-3</v>
       </c>
       <c r="B32">
+        <v>6.7185</v>
+      </c>
+      <c r="C32">
         <v>4</v>
       </c>
-      <c r="C32">
-        <v>-2.0947</v>
+      <c r="D32">
+        <v>20</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -1241,13 +1334,16 @@
     </row>
     <row r="33" spans="1:9">
       <c r="A33">
-        <v>-9</v>
+        <v>-2</v>
       </c>
       <c r="B33">
-        <v>6</v>
+        <v>5.4843</v>
       </c>
       <c r="C33">
-        <v>5.662000000000001</v>
+        <v>4</v>
+      </c>
+      <c r="D33">
+        <v>20</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -1267,13 +1363,16 @@
     </row>
     <row r="34" spans="1:9">
       <c r="A34">
-        <v>-8</v>
+        <v>-1</v>
       </c>
       <c r="B34">
-        <v>6</v>
+        <v>3.4674</v>
       </c>
       <c r="C34">
-        <v>6.3295</v>
+        <v>4</v>
+      </c>
+      <c r="D34">
+        <v>20</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -1293,13 +1392,16 @@
     </row>
     <row r="35" spans="1:9">
       <c r="A35">
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="B35">
-        <v>6</v>
+        <v>2.6832</v>
       </c>
       <c r="C35">
-        <v>7.3576</v>
+        <v>4</v>
+      </c>
+      <c r="D35">
+        <v>20</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -1319,13 +1421,16 @@
     </row>
     <row r="36" spans="1:9">
       <c r="A36">
-        <v>-5</v>
+        <v>1</v>
       </c>
       <c r="B36">
-        <v>6</v>
+        <v>0.4231</v>
       </c>
       <c r="C36">
-        <v>7.511</v>
+        <v>4</v>
+      </c>
+      <c r="D36">
+        <v>20</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -1345,13 +1450,16 @@
     </row>
     <row r="37" spans="1:9">
       <c r="A37">
-        <v>-4</v>
+        <v>2</v>
       </c>
       <c r="B37">
-        <v>6</v>
+        <v>-2.0947</v>
       </c>
       <c r="C37">
-        <v>7.4132</v>
+        <v>4</v>
+      </c>
+      <c r="D37">
+        <v>20</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -1371,13 +1479,16 @@
     </row>
     <row r="38" spans="1:9">
       <c r="A38">
-        <v>-2</v>
+        <v>-9</v>
       </c>
       <c r="B38">
+        <v>5.662000000000001</v>
+      </c>
+      <c r="C38">
         <v>6</v>
       </c>
-      <c r="C38">
-        <v>6.1793</v>
+      <c r="D38">
+        <v>20</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -1397,13 +1508,16 @@
     </row>
     <row r="39" spans="1:9">
       <c r="A39">
-        <v>-1</v>
+        <v>-8</v>
       </c>
       <c r="B39">
+        <v>6.3295</v>
+      </c>
+      <c r="C39">
         <v>6</v>
       </c>
-      <c r="C39">
-        <v>5.1205</v>
+      <c r="D39">
+        <v>20</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -1423,13 +1537,16 @@
     </row>
     <row r="40" spans="1:9">
       <c r="A40">
-        <v>0</v>
+        <v>-7</v>
       </c>
       <c r="B40">
+        <v>6.9704</v>
+      </c>
+      <c r="C40">
         <v>6</v>
       </c>
-      <c r="C40">
-        <v>2.5109</v>
+      <c r="D40">
+        <v>20</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -1449,13 +1566,16 @@
     </row>
     <row r="41" spans="1:9">
       <c r="A41">
-        <v>1</v>
+        <v>-6</v>
       </c>
       <c r="B41">
+        <v>7.3576</v>
+      </c>
+      <c r="C41">
         <v>6</v>
       </c>
-      <c r="C41">
-        <v>1.6645</v>
+      <c r="D41">
+        <v>20</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -1475,13 +1595,16 @@
     </row>
     <row r="42" spans="1:9">
       <c r="A42">
-        <v>2</v>
+        <v>-5</v>
       </c>
       <c r="B42">
+        <v>7.511</v>
+      </c>
+      <c r="C42">
         <v>6</v>
       </c>
-      <c r="C42">
-        <v>0.26537</v>
+      <c r="D42">
+        <v>20</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -1501,13 +1624,16 @@
     </row>
     <row r="43" spans="1:9">
       <c r="A43">
-        <v>-9</v>
+        <v>-4</v>
       </c>
       <c r="B43">
-        <v>8</v>
+        <v>7.4132</v>
       </c>
       <c r="C43">
-        <v>5.5698</v>
+        <v>6</v>
+      </c>
+      <c r="D43">
+        <v>20</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -1527,13 +1653,16 @@
     </row>
     <row r="44" spans="1:9">
       <c r="A44">
-        <v>-7</v>
+        <v>-3</v>
       </c>
       <c r="B44">
-        <v>8</v>
+        <v>7.0286</v>
       </c>
       <c r="C44">
-        <v>6.8235</v>
+        <v>6</v>
+      </c>
+      <c r="D44">
+        <v>20</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -1553,13 +1682,16 @@
     </row>
     <row r="45" spans="1:9">
       <c r="A45">
-        <v>-6</v>
+        <v>-2</v>
       </c>
       <c r="B45">
-        <v>8</v>
+        <v>6.1793</v>
       </c>
       <c r="C45">
-        <v>7.1429</v>
+        <v>6</v>
+      </c>
+      <c r="D45">
+        <v>20</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -1579,13 +1711,16 @@
     </row>
     <row r="46" spans="1:9">
       <c r="A46">
-        <v>-5</v>
+        <v>-1</v>
       </c>
       <c r="B46">
-        <v>8</v>
+        <v>5.1205</v>
       </c>
       <c r="C46">
-        <v>7.4212</v>
+        <v>6</v>
+      </c>
+      <c r="D46">
+        <v>20</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -1605,13 +1740,16 @@
     </row>
     <row r="47" spans="1:9">
       <c r="A47">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="B47">
-        <v>8</v>
+        <v>2.5109</v>
       </c>
       <c r="C47">
-        <v>6.9899</v>
+        <v>6</v>
+      </c>
+      <c r="D47">
+        <v>20</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -1631,13 +1769,16 @@
     </row>
     <row r="48" spans="1:9">
       <c r="A48">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="B48">
-        <v>8</v>
+        <v>1.6645</v>
       </c>
       <c r="C48">
-        <v>5.593999999999999</v>
+        <v>6</v>
+      </c>
+      <c r="D48">
+        <v>20</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -1657,13 +1798,16 @@
     </row>
     <row r="49" spans="1:9">
       <c r="A49">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B49">
-        <v>8</v>
+        <v>0.26537</v>
       </c>
       <c r="C49">
-        <v>2.0474</v>
+        <v>6</v>
+      </c>
+      <c r="D49">
+        <v>20</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -1683,13 +1827,16 @@
     </row>
     <row r="50" spans="1:9">
       <c r="A50">
-        <v>1</v>
+        <v>-9</v>
       </c>
       <c r="B50">
+        <v>5.5698</v>
+      </c>
+      <c r="C50">
         <v>8</v>
       </c>
-      <c r="C50">
-        <v>1.4931</v>
+      <c r="D50">
+        <v>20</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -1709,13 +1856,16 @@
     </row>
     <row r="51" spans="1:9">
       <c r="A51">
-        <v>2</v>
+        <v>-8</v>
       </c>
       <c r="B51">
+        <v>6.2294</v>
+      </c>
+      <c r="C51">
         <v>8</v>
       </c>
-      <c r="C51">
-        <v>0.22548</v>
+      <c r="D51">
+        <v>20</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -1735,13 +1885,16 @@
     </row>
     <row r="52" spans="1:9">
       <c r="A52">
-        <v>-9</v>
+        <v>-7</v>
       </c>
       <c r="B52">
-        <v>10</v>
+        <v>6.8235</v>
       </c>
       <c r="C52">
-        <v>5.462999999999999</v>
+        <v>8</v>
+      </c>
+      <c r="D52">
+        <v>20</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -1761,13 +1914,16 @@
     </row>
     <row r="53" spans="1:9">
       <c r="A53">
-        <v>-8</v>
+        <v>-6</v>
       </c>
       <c r="B53">
-        <v>10</v>
+        <v>7.1429</v>
       </c>
       <c r="C53">
-        <v>6.051</v>
+        <v>8</v>
+      </c>
+      <c r="D53">
+        <v>20</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -1787,13 +1943,16 @@
     </row>
     <row r="54" spans="1:9">
       <c r="A54">
-        <v>-7</v>
+        <v>-5</v>
       </c>
       <c r="B54">
-        <v>10</v>
+        <v>7.4212</v>
       </c>
       <c r="C54">
-        <v>6.6362</v>
+        <v>8</v>
+      </c>
+      <c r="D54">
+        <v>20</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -1813,13 +1972,16 @@
     </row>
     <row r="55" spans="1:9">
       <c r="A55">
-        <v>-6</v>
+        <v>-4</v>
       </c>
       <c r="B55">
-        <v>10</v>
+        <v>7.3994</v>
       </c>
       <c r="C55">
-        <v>7.0248</v>
+        <v>8</v>
+      </c>
+      <c r="D55">
+        <v>20</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -1839,13 +2001,16 @@
     </row>
     <row r="56" spans="1:9">
       <c r="A56">
-        <v>-5</v>
+        <v>-3</v>
       </c>
       <c r="B56">
-        <v>10</v>
+        <v>6.9899</v>
       </c>
       <c r="C56">
-        <v>7.3711</v>
+        <v>8</v>
+      </c>
+      <c r="D56">
+        <v>20</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -1865,13 +2030,16 @@
     </row>
     <row r="57" spans="1:9">
       <c r="A57">
-        <v>-4</v>
+        <v>-2</v>
       </c>
       <c r="B57">
-        <v>10</v>
+        <v>6.4647</v>
       </c>
       <c r="C57">
-        <v>7.481</v>
+        <v>8</v>
+      </c>
+      <c r="D57">
+        <v>20</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -1891,13 +2059,16 @@
     </row>
     <row r="58" spans="1:9">
       <c r="A58">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="B58">
-        <v>10</v>
+        <v>5.593999999999999</v>
       </c>
       <c r="C58">
-        <v>7.1329</v>
+        <v>8</v>
+      </c>
+      <c r="D58">
+        <v>20</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -1917,13 +2088,16 @@
     </row>
     <row r="59" spans="1:9">
       <c r="A59">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="B59">
-        <v>10</v>
+        <v>2.0474</v>
       </c>
       <c r="C59">
-        <v>6.6092</v>
+        <v>8</v>
+      </c>
+      <c r="D59">
+        <v>20</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -1943,13 +2117,16 @@
     </row>
     <row r="60" spans="1:9">
       <c r="A60">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B60">
-        <v>10</v>
+        <v>1.4931</v>
       </c>
       <c r="C60">
-        <v>0.52717</v>
+        <v>8</v>
+      </c>
+      <c r="D60">
+        <v>20</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -1969,13 +2146,16 @@
     </row>
     <row r="61" spans="1:9">
       <c r="A61">
-        <v>-9</v>
+        <v>2</v>
       </c>
       <c r="B61">
-        <v>12</v>
+        <v>0.22548</v>
       </c>
       <c r="C61">
-        <v>5.4376</v>
+        <v>8</v>
+      </c>
+      <c r="D61">
+        <v>20</v>
       </c>
       <c r="E61">
         <v>0</v>
@@ -1995,13 +2175,16 @@
     </row>
     <row r="62" spans="1:9">
       <c r="A62">
-        <v>-8</v>
+        <v>-9</v>
       </c>
       <c r="B62">
-        <v>12</v>
+        <v>5.462999999999999</v>
       </c>
       <c r="C62">
-        <v>6.0709</v>
+        <v>10</v>
+      </c>
+      <c r="D62">
+        <v>20</v>
       </c>
       <c r="E62">
         <v>0</v>
@@ -2021,13 +2204,16 @@
     </row>
     <row r="63" spans="1:9">
       <c r="A63">
-        <v>-7</v>
+        <v>-8</v>
       </c>
       <c r="B63">
-        <v>12</v>
+        <v>6.051</v>
       </c>
       <c r="C63">
-        <v>6.4565</v>
+        <v>10</v>
+      </c>
+      <c r="D63">
+        <v>20</v>
       </c>
       <c r="E63">
         <v>0</v>
@@ -2047,13 +2233,16 @@
     </row>
     <row r="64" spans="1:9">
       <c r="A64">
-        <v>-6</v>
+        <v>-7</v>
       </c>
       <c r="B64">
-        <v>12</v>
+        <v>6.6362</v>
       </c>
       <c r="C64">
-        <v>6.9119</v>
+        <v>10</v>
+      </c>
+      <c r="D64">
+        <v>20</v>
       </c>
       <c r="E64">
         <v>0</v>
@@ -2073,13 +2262,16 @@
     </row>
     <row r="65" spans="1:9">
       <c r="A65">
-        <v>-5</v>
+        <v>-6</v>
       </c>
       <c r="B65">
-        <v>12</v>
+        <v>7.0248</v>
       </c>
       <c r="C65">
-        <v>7.2532</v>
+        <v>10</v>
+      </c>
+      <c r="D65">
+        <v>20</v>
       </c>
       <c r="E65">
         <v>0</v>
@@ -2099,13 +2291,16 @@
     </row>
     <row r="66" spans="1:9">
       <c r="A66">
-        <v>-2</v>
+        <v>-5</v>
       </c>
       <c r="B66">
-        <v>12</v>
+        <v>7.3711</v>
       </c>
       <c r="C66">
-        <v>6.8209</v>
+        <v>10</v>
+      </c>
+      <c r="D66">
+        <v>20</v>
       </c>
       <c r="E66">
         <v>0</v>
@@ -2125,13 +2320,16 @@
     </row>
     <row r="67" spans="1:9">
       <c r="A67">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="B67">
-        <v>12</v>
+        <v>7.481</v>
       </c>
       <c r="C67">
-        <v>4.6342</v>
+        <v>10</v>
+      </c>
+      <c r="D67">
+        <v>20</v>
       </c>
       <c r="E67">
         <v>0</v>
@@ -2151,13 +2349,16 @@
     </row>
     <row r="68" spans="1:9">
       <c r="A68">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="B68">
-        <v>12</v>
+        <v>7.1329</v>
       </c>
       <c r="C68">
-        <v>3.2801</v>
+        <v>10</v>
+      </c>
+      <c r="D68">
+        <v>20</v>
       </c>
       <c r="E68">
         <v>0</v>
@@ -2177,13 +2378,16 @@
     </row>
     <row r="69" spans="1:9">
       <c r="A69">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="B69">
-        <v>12</v>
+        <v>6.6092</v>
       </c>
       <c r="C69">
-        <v>0.92884</v>
+        <v>10</v>
+      </c>
+      <c r="D69">
+        <v>20</v>
       </c>
       <c r="E69">
         <v>0</v>
@@ -2203,13 +2407,16 @@
     </row>
     <row r="70" spans="1:9">
       <c r="A70">
-        <v>-9</v>
+        <v>-1</v>
       </c>
       <c r="B70">
-        <v>14</v>
+        <v>6.0903</v>
       </c>
       <c r="C70">
-        <v>5.3558</v>
+        <v>10</v>
+      </c>
+      <c r="D70">
+        <v>20</v>
       </c>
       <c r="E70">
         <v>0</v>
@@ -2229,13 +2436,16 @@
     </row>
     <row r="71" spans="1:9">
       <c r="A71">
-        <v>-8</v>
+        <v>0</v>
       </c>
       <c r="B71">
-        <v>14</v>
+        <v>4.0929</v>
       </c>
       <c r="C71">
-        <v>5.8596</v>
+        <v>10</v>
+      </c>
+      <c r="D71">
+        <v>20</v>
       </c>
       <c r="E71">
         <v>0</v>
@@ -2255,13 +2465,16 @@
     </row>
     <row r="72" spans="1:9">
       <c r="A72">
-        <v>-7</v>
+        <v>1</v>
       </c>
       <c r="B72">
-        <v>14</v>
+        <v>1.8751</v>
       </c>
       <c r="C72">
-        <v>6.332999999999999</v>
+        <v>10</v>
+      </c>
+      <c r="D72">
+        <v>20</v>
       </c>
       <c r="E72">
         <v>0</v>
@@ -2281,13 +2494,16 @@
     </row>
     <row r="73" spans="1:9">
       <c r="A73">
-        <v>-4</v>
+        <v>2</v>
       </c>
       <c r="B73">
-        <v>14</v>
+        <v>0.52717</v>
       </c>
       <c r="C73">
-        <v>7.3487</v>
+        <v>10</v>
+      </c>
+      <c r="D73">
+        <v>20</v>
       </c>
       <c r="E73">
         <v>0</v>
@@ -2307,13 +2523,16 @@
     </row>
     <row r="74" spans="1:9">
       <c r="A74">
-        <v>0</v>
+        <v>-9</v>
       </c>
       <c r="B74">
-        <v>14</v>
+        <v>5.4376</v>
       </c>
       <c r="C74">
-        <v>4.7963</v>
+        <v>12</v>
+      </c>
+      <c r="D74">
+        <v>20</v>
       </c>
       <c r="E74">
         <v>0</v>
@@ -2333,13 +2552,16 @@
     </row>
     <row r="75" spans="1:9">
       <c r="A75">
-        <v>1</v>
+        <v>-8</v>
       </c>
       <c r="B75">
-        <v>14</v>
+        <v>6.0709</v>
       </c>
       <c r="C75">
-        <v>4.3512</v>
+        <v>12</v>
+      </c>
+      <c r="D75">
+        <v>20</v>
       </c>
       <c r="E75">
         <v>0</v>
@@ -2359,13 +2581,16 @@
     </row>
     <row r="76" spans="1:9">
       <c r="A76">
-        <v>-9</v>
+        <v>-7</v>
       </c>
       <c r="B76">
-        <v>16</v>
+        <v>6.4565</v>
       </c>
       <c r="C76">
-        <v>5.3068</v>
+        <v>12</v>
+      </c>
+      <c r="D76">
+        <v>20</v>
       </c>
       <c r="E76">
         <v>0</v>
@@ -2385,13 +2610,16 @@
     </row>
     <row r="77" spans="1:9">
       <c r="A77">
-        <v>-7</v>
+        <v>-6</v>
       </c>
       <c r="B77">
-        <v>16</v>
+        <v>6.9119</v>
       </c>
       <c r="C77">
-        <v>6.2527</v>
+        <v>12</v>
+      </c>
+      <c r="D77">
+        <v>20</v>
       </c>
       <c r="E77">
         <v>0</v>
@@ -2411,13 +2639,16 @@
     </row>
     <row r="78" spans="1:9">
       <c r="A78">
-        <v>-6</v>
+        <v>-5</v>
       </c>
       <c r="B78">
-        <v>16</v>
+        <v>7.2532</v>
       </c>
       <c r="C78">
-        <v>6.697</v>
+        <v>12</v>
+      </c>
+      <c r="D78">
+        <v>20</v>
       </c>
       <c r="E78">
         <v>0</v>
@@ -2440,10 +2671,13 @@
         <v>-4</v>
       </c>
       <c r="B79">
-        <v>16</v>
+        <v>7.4739</v>
       </c>
       <c r="C79">
-        <v>7.1845</v>
+        <v>12</v>
+      </c>
+      <c r="D79">
+        <v>20</v>
       </c>
       <c r="E79">
         <v>0</v>
@@ -2466,10 +2700,13 @@
         <v>-3</v>
       </c>
       <c r="B80">
-        <v>16</v>
+        <v>7.2301</v>
       </c>
       <c r="C80">
-        <v>7.341</v>
+        <v>12</v>
+      </c>
+      <c r="D80">
+        <v>20</v>
       </c>
       <c r="E80">
         <v>0</v>
@@ -2492,10 +2729,13 @@
         <v>-2</v>
       </c>
       <c r="B81">
-        <v>16</v>
+        <v>6.8209</v>
       </c>
       <c r="C81">
-        <v>6.9065</v>
+        <v>12</v>
+      </c>
+      <c r="D81">
+        <v>20</v>
       </c>
       <c r="E81">
         <v>0</v>
@@ -2515,13 +2755,16 @@
     </row>
     <row r="82" spans="1:9">
       <c r="A82">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B82">
-        <v>16</v>
+        <v>5.2224</v>
       </c>
       <c r="C82">
-        <v>5.4875</v>
+        <v>12</v>
+      </c>
+      <c r="D82">
+        <v>20</v>
       </c>
       <c r="E82">
         <v>0</v>
@@ -2541,13 +2784,16 @@
     </row>
     <row r="83" spans="1:9">
       <c r="A83">
-        <v>-9</v>
+        <v>0</v>
       </c>
       <c r="B83">
-        <v>18</v>
+        <v>4.6342</v>
       </c>
       <c r="C83">
-        <v>5.2001</v>
+        <v>12</v>
+      </c>
+      <c r="D83">
+        <v>20</v>
       </c>
       <c r="E83">
         <v>0</v>
@@ -2567,13 +2813,16 @@
     </row>
     <row r="84" spans="1:9">
       <c r="A84">
-        <v>-5</v>
+        <v>1</v>
       </c>
       <c r="B84">
-        <v>18</v>
+        <v>3.2801</v>
       </c>
       <c r="C84">
-        <v>6.8664</v>
+        <v>12</v>
+      </c>
+      <c r="D84">
+        <v>20</v>
       </c>
       <c r="E84">
         <v>0</v>
@@ -2593,13 +2842,16 @@
     </row>
     <row r="85" spans="1:9">
       <c r="A85">
-        <v>-4</v>
+        <v>2</v>
       </c>
       <c r="B85">
-        <v>18</v>
+        <v>0.92884</v>
       </c>
       <c r="C85">
-        <v>7.2248</v>
+        <v>12</v>
+      </c>
+      <c r="D85">
+        <v>20</v>
       </c>
       <c r="E85">
         <v>0</v>
@@ -2619,13 +2871,16 @@
     </row>
     <row r="86" spans="1:9">
       <c r="A86">
-        <v>-3</v>
+        <v>-9</v>
       </c>
       <c r="B86">
-        <v>18</v>
+        <v>5.3558</v>
       </c>
       <c r="C86">
-        <v>7.2522</v>
+        <v>14</v>
+      </c>
+      <c r="D86">
+        <v>20</v>
       </c>
       <c r="E86">
         <v>0</v>
@@ -2645,13 +2900,16 @@
     </row>
     <row r="87" spans="1:9">
       <c r="A87">
-        <v>1</v>
+        <v>-8</v>
       </c>
       <c r="B87">
-        <v>18</v>
+        <v>5.8596</v>
       </c>
       <c r="C87">
-        <v>4.258</v>
+        <v>14</v>
+      </c>
+      <c r="D87">
+        <v>20</v>
       </c>
       <c r="E87">
         <v>0</v>
@@ -2671,13 +2929,16 @@
     </row>
     <row r="88" spans="1:9">
       <c r="A88">
-        <v>-9</v>
+        <v>-7</v>
       </c>
       <c r="B88">
-        <v>20</v>
+        <v>6.332999999999998</v>
       </c>
       <c r="C88">
-        <v>5.0955</v>
+        <v>14</v>
+      </c>
+      <c r="D88">
+        <v>20</v>
       </c>
       <c r="E88">
         <v>0</v>
@@ -2697,13 +2958,16 @@
     </row>
     <row r="89" spans="1:9">
       <c r="A89">
-        <v>-5</v>
+        <v>-6</v>
       </c>
       <c r="B89">
-        <v>20</v>
+        <v>6.778</v>
       </c>
       <c r="C89">
-        <v>6.6937</v>
+        <v>14</v>
+      </c>
+      <c r="D89">
+        <v>20</v>
       </c>
       <c r="E89">
         <v>0</v>
@@ -2723,13 +2987,16 @@
     </row>
     <row r="90" spans="1:9">
       <c r="A90">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="B90">
-        <v>20</v>
+        <v>7.1259</v>
       </c>
       <c r="C90">
-        <v>6.4291</v>
+        <v>14</v>
+      </c>
+      <c r="D90">
+        <v>20</v>
       </c>
       <c r="E90">
         <v>0</v>
@@ -2749,13 +3016,16 @@
     </row>
     <row r="91" spans="1:9">
       <c r="A91">
-        <v>1</v>
+        <v>-4</v>
       </c>
       <c r="B91">
-        <v>20</v>
+        <v>7.3487</v>
       </c>
       <c r="C91">
-        <v>5.1962</v>
+        <v>14</v>
+      </c>
+      <c r="D91">
+        <v>20</v>
       </c>
       <c r="E91">
         <v>0</v>
@@ -2775,27 +3045,1219 @@
     </row>
     <row r="92" spans="1:9">
       <c r="A92">
+        <v>-3</v>
+      </c>
+      <c r="B92">
+        <v>7.2554</v>
+      </c>
+      <c r="C92">
+        <v>14</v>
+      </c>
+      <c r="D92">
+        <v>20</v>
+      </c>
+      <c r="E92">
+        <v>0</v>
+      </c>
+      <c r="F92">
+        <v>250</v>
+      </c>
+      <c r="G92">
+        <v>112</v>
+      </c>
+      <c r="H92">
+        <v>0.16</v>
+      </c>
+      <c r="I92">
+        <v>0.158</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
+      <c r="A93">
+        <v>-2</v>
+      </c>
+      <c r="B93">
+        <v>6.952000000000001</v>
+      </c>
+      <c r="C93">
+        <v>14</v>
+      </c>
+      <c r="D93">
+        <v>20</v>
+      </c>
+      <c r="E93">
+        <v>0</v>
+      </c>
+      <c r="F93">
+        <v>250</v>
+      </c>
+      <c r="G93">
+        <v>112</v>
+      </c>
+      <c r="H93">
+        <v>0.16</v>
+      </c>
+      <c r="I93">
+        <v>0.158</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
+      <c r="A94">
+        <v>-1</v>
+      </c>
+      <c r="B94">
+        <v>5.9</v>
+      </c>
+      <c r="C94">
+        <v>14</v>
+      </c>
+      <c r="D94">
+        <v>20</v>
+      </c>
+      <c r="E94">
+        <v>0</v>
+      </c>
+      <c r="F94">
+        <v>250</v>
+      </c>
+      <c r="G94">
+        <v>112</v>
+      </c>
+      <c r="H94">
+        <v>0.16</v>
+      </c>
+      <c r="I94">
+        <v>0.158</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
+      <c r="A95">
+        <v>0</v>
+      </c>
+      <c r="B95">
+        <v>4.7963</v>
+      </c>
+      <c r="C95">
+        <v>14</v>
+      </c>
+      <c r="D95">
+        <v>20</v>
+      </c>
+      <c r="E95">
+        <v>0</v>
+      </c>
+      <c r="F95">
+        <v>250</v>
+      </c>
+      <c r="G95">
+        <v>112</v>
+      </c>
+      <c r="H95">
+        <v>0.16</v>
+      </c>
+      <c r="I95">
+        <v>0.158</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
+      <c r="A96">
+        <v>1</v>
+      </c>
+      <c r="B96">
+        <v>4.3512</v>
+      </c>
+      <c r="C96">
+        <v>14</v>
+      </c>
+      <c r="D96">
+        <v>20</v>
+      </c>
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>250</v>
+      </c>
+      <c r="G96">
+        <v>112</v>
+      </c>
+      <c r="H96">
+        <v>0.16</v>
+      </c>
+      <c r="I96">
+        <v>0.158</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
+      <c r="A97">
         <v>2</v>
       </c>
-      <c r="B92">
-        <v>20</v>
-      </c>
-      <c r="C92">
+      <c r="B97">
+        <v>1.0722</v>
+      </c>
+      <c r="C97">
+        <v>14</v>
+      </c>
+      <c r="D97">
+        <v>20</v>
+      </c>
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>250</v>
+      </c>
+      <c r="G97">
+        <v>112</v>
+      </c>
+      <c r="H97">
+        <v>0.16</v>
+      </c>
+      <c r="I97">
+        <v>0.158</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
+      <c r="A98">
+        <v>-9</v>
+      </c>
+      <c r="B98">
+        <v>5.3068</v>
+      </c>
+      <c r="C98">
+        <v>16</v>
+      </c>
+      <c r="D98">
+        <v>20</v>
+      </c>
+      <c r="E98">
+        <v>0</v>
+      </c>
+      <c r="F98">
+        <v>250</v>
+      </c>
+      <c r="G98">
+        <v>112</v>
+      </c>
+      <c r="H98">
+        <v>0.16</v>
+      </c>
+      <c r="I98">
+        <v>0.158</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
+      <c r="A99">
+        <v>-8</v>
+      </c>
+      <c r="B99">
+        <v>5.7125</v>
+      </c>
+      <c r="C99">
+        <v>16</v>
+      </c>
+      <c r="D99">
+        <v>20</v>
+      </c>
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>250</v>
+      </c>
+      <c r="G99">
+        <v>112</v>
+      </c>
+      <c r="H99">
+        <v>0.16</v>
+      </c>
+      <c r="I99">
+        <v>0.158</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
+      <c r="A100">
+        <v>-7</v>
+      </c>
+      <c r="B100">
+        <v>6.2527</v>
+      </c>
+      <c r="C100">
+        <v>16</v>
+      </c>
+      <c r="D100">
+        <v>20</v>
+      </c>
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>250</v>
+      </c>
+      <c r="G100">
+        <v>112</v>
+      </c>
+      <c r="H100">
+        <v>0.16</v>
+      </c>
+      <c r="I100">
+        <v>0.158</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
+      <c r="A101">
+        <v>-6</v>
+      </c>
+      <c r="B101">
+        <v>6.697</v>
+      </c>
+      <c r="C101">
+        <v>16</v>
+      </c>
+      <c r="D101">
+        <v>20</v>
+      </c>
+      <c r="E101">
+        <v>0</v>
+      </c>
+      <c r="F101">
+        <v>250</v>
+      </c>
+      <c r="G101">
+        <v>112</v>
+      </c>
+      <c r="H101">
+        <v>0.16</v>
+      </c>
+      <c r="I101">
+        <v>0.158</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
+      <c r="A102">
+        <v>-5</v>
+      </c>
+      <c r="B102">
+        <v>7.0419</v>
+      </c>
+      <c r="C102">
+        <v>16</v>
+      </c>
+      <c r="D102">
+        <v>20</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>250</v>
+      </c>
+      <c r="G102">
+        <v>112</v>
+      </c>
+      <c r="H102">
+        <v>0.16</v>
+      </c>
+      <c r="I102">
+        <v>0.158</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
+      <c r="A103">
+        <v>-4</v>
+      </c>
+      <c r="B103">
+        <v>7.1845</v>
+      </c>
+      <c r="C103">
+        <v>16</v>
+      </c>
+      <c r="D103">
+        <v>20</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>250</v>
+      </c>
+      <c r="G103">
+        <v>112</v>
+      </c>
+      <c r="H103">
+        <v>0.16</v>
+      </c>
+      <c r="I103">
+        <v>0.158</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
+      <c r="A104">
+        <v>-3</v>
+      </c>
+      <c r="B104">
+        <v>7.341</v>
+      </c>
+      <c r="C104">
+        <v>16</v>
+      </c>
+      <c r="D104">
+        <v>20</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>250</v>
+      </c>
+      <c r="G104">
+        <v>112</v>
+      </c>
+      <c r="H104">
+        <v>0.16</v>
+      </c>
+      <c r="I104">
+        <v>0.158</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
+      <c r="A105">
+        <v>-2</v>
+      </c>
+      <c r="B105">
+        <v>6.9065</v>
+      </c>
+      <c r="C105">
+        <v>16</v>
+      </c>
+      <c r="D105">
+        <v>20</v>
+      </c>
+      <c r="E105">
+        <v>0</v>
+      </c>
+      <c r="F105">
+        <v>250</v>
+      </c>
+      <c r="G105">
+        <v>112</v>
+      </c>
+      <c r="H105">
+        <v>0.16</v>
+      </c>
+      <c r="I105">
+        <v>0.158</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
+      <c r="A106">
+        <v>-1</v>
+      </c>
+      <c r="B106">
+        <v>6.1203</v>
+      </c>
+      <c r="C106">
+        <v>16</v>
+      </c>
+      <c r="D106">
+        <v>20</v>
+      </c>
+      <c r="E106">
+        <v>0</v>
+      </c>
+      <c r="F106">
+        <v>250</v>
+      </c>
+      <c r="G106">
+        <v>112</v>
+      </c>
+      <c r="H106">
+        <v>0.16</v>
+      </c>
+      <c r="I106">
+        <v>0.158</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
+      <c r="A107">
+        <v>0</v>
+      </c>
+      <c r="B107">
+        <v>5.4875</v>
+      </c>
+      <c r="C107">
+        <v>16</v>
+      </c>
+      <c r="D107">
+        <v>20</v>
+      </c>
+      <c r="E107">
+        <v>0</v>
+      </c>
+      <c r="F107">
+        <v>250</v>
+      </c>
+      <c r="G107">
+        <v>112</v>
+      </c>
+      <c r="H107">
+        <v>0.16</v>
+      </c>
+      <c r="I107">
+        <v>0.158</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
+      <c r="A108">
+        <v>1</v>
+      </c>
+      <c r="B108">
+        <v>4.4116</v>
+      </c>
+      <c r="C108">
+        <v>16</v>
+      </c>
+      <c r="D108">
+        <v>20</v>
+      </c>
+      <c r="E108">
+        <v>0</v>
+      </c>
+      <c r="F108">
+        <v>250</v>
+      </c>
+      <c r="G108">
+        <v>112</v>
+      </c>
+      <c r="H108">
+        <v>0.16</v>
+      </c>
+      <c r="I108">
+        <v>0.158</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
+      <c r="A109">
+        <v>2</v>
+      </c>
+      <c r="B109">
+        <v>2.3341</v>
+      </c>
+      <c r="C109">
+        <v>16</v>
+      </c>
+      <c r="D109">
+        <v>20</v>
+      </c>
+      <c r="E109">
+        <v>0</v>
+      </c>
+      <c r="F109">
+        <v>250</v>
+      </c>
+      <c r="G109">
+        <v>112</v>
+      </c>
+      <c r="H109">
+        <v>0.16</v>
+      </c>
+      <c r="I109">
+        <v>0.158</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
+      <c r="A110">
+        <v>-9</v>
+      </c>
+      <c r="B110">
+        <v>5.2001</v>
+      </c>
+      <c r="C110">
+        <v>18</v>
+      </c>
+      <c r="D110">
+        <v>20</v>
+      </c>
+      <c r="E110">
+        <v>0</v>
+      </c>
+      <c r="F110">
+        <v>250</v>
+      </c>
+      <c r="G110">
+        <v>112</v>
+      </c>
+      <c r="H110">
+        <v>0.16</v>
+      </c>
+      <c r="I110">
+        <v>0.158</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
+      <c r="A111">
+        <v>-8</v>
+      </c>
+      <c r="B111">
+        <v>5.675</v>
+      </c>
+      <c r="C111">
+        <v>18</v>
+      </c>
+      <c r="D111">
+        <v>20</v>
+      </c>
+      <c r="E111">
+        <v>0</v>
+      </c>
+      <c r="F111">
+        <v>250</v>
+      </c>
+      <c r="G111">
+        <v>112</v>
+      </c>
+      <c r="H111">
+        <v>0.16</v>
+      </c>
+      <c r="I111">
+        <v>0.158</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
+      <c r="A112">
+        <v>-7</v>
+      </c>
+      <c r="B112">
+        <v>6.146</v>
+      </c>
+      <c r="C112">
+        <v>18</v>
+      </c>
+      <c r="D112">
+        <v>20</v>
+      </c>
+      <c r="E112">
+        <v>0</v>
+      </c>
+      <c r="F112">
+        <v>250</v>
+      </c>
+      <c r="G112">
+        <v>112</v>
+      </c>
+      <c r="H112">
+        <v>0.16</v>
+      </c>
+      <c r="I112">
+        <v>0.158</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
+      <c r="A113">
+        <v>-6</v>
+      </c>
+      <c r="B113">
+        <v>6.4093</v>
+      </c>
+      <c r="C113">
+        <v>18</v>
+      </c>
+      <c r="D113">
+        <v>20</v>
+      </c>
+      <c r="E113">
+        <v>0</v>
+      </c>
+      <c r="F113">
+        <v>250</v>
+      </c>
+      <c r="G113">
+        <v>112</v>
+      </c>
+      <c r="H113">
+        <v>0.16</v>
+      </c>
+      <c r="I113">
+        <v>0.158</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
+      <c r="A114">
+        <v>-5</v>
+      </c>
+      <c r="B114">
+        <v>6.8664</v>
+      </c>
+      <c r="C114">
+        <v>18</v>
+      </c>
+      <c r="D114">
+        <v>20</v>
+      </c>
+      <c r="E114">
+        <v>0</v>
+      </c>
+      <c r="F114">
+        <v>250</v>
+      </c>
+      <c r="G114">
+        <v>112</v>
+      </c>
+      <c r="H114">
+        <v>0.16</v>
+      </c>
+      <c r="I114">
+        <v>0.158</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
+      <c r="A115">
+        <v>-4</v>
+      </c>
+      <c r="B115">
+        <v>7.2248</v>
+      </c>
+      <c r="C115">
+        <v>18</v>
+      </c>
+      <c r="D115">
+        <v>20</v>
+      </c>
+      <c r="E115">
+        <v>0</v>
+      </c>
+      <c r="F115">
+        <v>250</v>
+      </c>
+      <c r="G115">
+        <v>112</v>
+      </c>
+      <c r="H115">
+        <v>0.16</v>
+      </c>
+      <c r="I115">
+        <v>0.158</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
+      <c r="A116">
+        <v>-3</v>
+      </c>
+      <c r="B116">
+        <v>7.2522</v>
+      </c>
+      <c r="C116">
+        <v>18</v>
+      </c>
+      <c r="D116">
+        <v>20</v>
+      </c>
+      <c r="E116">
+        <v>0</v>
+      </c>
+      <c r="F116">
+        <v>250</v>
+      </c>
+      <c r="G116">
+        <v>112</v>
+      </c>
+      <c r="H116">
+        <v>0.16</v>
+      </c>
+      <c r="I116">
+        <v>0.158</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
+      <c r="A117">
+        <v>-2</v>
+      </c>
+      <c r="B117">
+        <v>7.2134</v>
+      </c>
+      <c r="C117">
+        <v>18</v>
+      </c>
+      <c r="D117">
+        <v>20</v>
+      </c>
+      <c r="E117">
+        <v>0</v>
+      </c>
+      <c r="F117">
+        <v>250</v>
+      </c>
+      <c r="G117">
+        <v>112</v>
+      </c>
+      <c r="H117">
+        <v>0.16</v>
+      </c>
+      <c r="I117">
+        <v>0.158</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
+      <c r="A118">
+        <v>-1</v>
+      </c>
+      <c r="B118">
+        <v>6.7746</v>
+      </c>
+      <c r="C118">
+        <v>18</v>
+      </c>
+      <c r="D118">
+        <v>20</v>
+      </c>
+      <c r="E118">
+        <v>0</v>
+      </c>
+      <c r="F118">
+        <v>250</v>
+      </c>
+      <c r="G118">
+        <v>112</v>
+      </c>
+      <c r="H118">
+        <v>0.16</v>
+      </c>
+      <c r="I118">
+        <v>0.158</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
+      <c r="A119">
+        <v>0</v>
+      </c>
+      <c r="B119">
+        <v>5.6261</v>
+      </c>
+      <c r="C119">
+        <v>18</v>
+      </c>
+      <c r="D119">
+        <v>20</v>
+      </c>
+      <c r="E119">
+        <v>0</v>
+      </c>
+      <c r="F119">
+        <v>250</v>
+      </c>
+      <c r="G119">
+        <v>112</v>
+      </c>
+      <c r="H119">
+        <v>0.16</v>
+      </c>
+      <c r="I119">
+        <v>0.158</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
+      <c r="A120">
+        <v>1</v>
+      </c>
+      <c r="B120">
+        <v>4.258</v>
+      </c>
+      <c r="C120">
+        <v>18</v>
+      </c>
+      <c r="D120">
+        <v>20</v>
+      </c>
+      <c r="E120">
+        <v>0</v>
+      </c>
+      <c r="F120">
+        <v>250</v>
+      </c>
+      <c r="G120">
+        <v>112</v>
+      </c>
+      <c r="H120">
+        <v>0.16</v>
+      </c>
+      <c r="I120">
+        <v>0.158</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
+      <c r="A121">
+        <v>2</v>
+      </c>
+      <c r="B121">
+        <v>3.3235</v>
+      </c>
+      <c r="C121">
+        <v>18</v>
+      </c>
+      <c r="D121">
+        <v>20</v>
+      </c>
+      <c r="E121">
+        <v>0</v>
+      </c>
+      <c r="F121">
+        <v>250</v>
+      </c>
+      <c r="G121">
+        <v>112</v>
+      </c>
+      <c r="H121">
+        <v>0.16</v>
+      </c>
+      <c r="I121">
+        <v>0.158</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
+      <c r="A122">
+        <v>-9</v>
+      </c>
+      <c r="B122">
+        <v>5.0955</v>
+      </c>
+      <c r="C122">
+        <v>20</v>
+      </c>
+      <c r="D122">
+        <v>20</v>
+      </c>
+      <c r="E122">
+        <v>0</v>
+      </c>
+      <c r="F122">
+        <v>250</v>
+      </c>
+      <c r="G122">
+        <v>112</v>
+      </c>
+      <c r="H122">
+        <v>0.16</v>
+      </c>
+      <c r="I122">
+        <v>0.158</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
+      <c r="A123">
+        <v>-8</v>
+      </c>
+      <c r="B123">
+        <v>5.5004</v>
+      </c>
+      <c r="C123">
+        <v>20</v>
+      </c>
+      <c r="D123">
+        <v>20</v>
+      </c>
+      <c r="E123">
+        <v>0</v>
+      </c>
+      <c r="F123">
+        <v>250</v>
+      </c>
+      <c r="G123">
+        <v>112</v>
+      </c>
+      <c r="H123">
+        <v>0.16</v>
+      </c>
+      <c r="I123">
+        <v>0.158</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
+      <c r="A124">
+        <v>-7</v>
+      </c>
+      <c r="B124">
+        <v>5.8238</v>
+      </c>
+      <c r="C124">
+        <v>20</v>
+      </c>
+      <c r="D124">
+        <v>20</v>
+      </c>
+      <c r="E124">
+        <v>0</v>
+      </c>
+      <c r="F124">
+        <v>250</v>
+      </c>
+      <c r="G124">
+        <v>112</v>
+      </c>
+      <c r="H124">
+        <v>0.16</v>
+      </c>
+      <c r="I124">
+        <v>0.158</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
+      <c r="A125">
+        <v>-6</v>
+      </c>
+      <c r="B125">
+        <v>6.3767</v>
+      </c>
+      <c r="C125">
+        <v>20</v>
+      </c>
+      <c r="D125">
+        <v>20</v>
+      </c>
+      <c r="E125">
+        <v>0</v>
+      </c>
+      <c r="F125">
+        <v>250</v>
+      </c>
+      <c r="G125">
+        <v>112</v>
+      </c>
+      <c r="H125">
+        <v>0.16</v>
+      </c>
+      <c r="I125">
+        <v>0.158</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
+      <c r="A126">
+        <v>-5</v>
+      </c>
+      <c r="B126">
+        <v>6.6937</v>
+      </c>
+      <c r="C126">
+        <v>20</v>
+      </c>
+      <c r="D126">
+        <v>20</v>
+      </c>
+      <c r="E126">
+        <v>0</v>
+      </c>
+      <c r="F126">
+        <v>250</v>
+      </c>
+      <c r="G126">
+        <v>112</v>
+      </c>
+      <c r="H126">
+        <v>0.16</v>
+      </c>
+      <c r="I126">
+        <v>0.158</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
+      <c r="A127">
+        <v>-4</v>
+      </c>
+      <c r="B127">
+        <v>7.0238</v>
+      </c>
+      <c r="C127">
+        <v>20</v>
+      </c>
+      <c r="D127">
+        <v>20</v>
+      </c>
+      <c r="E127">
+        <v>0</v>
+      </c>
+      <c r="F127">
+        <v>250</v>
+      </c>
+      <c r="G127">
+        <v>112</v>
+      </c>
+      <c r="H127">
+        <v>0.16</v>
+      </c>
+      <c r="I127">
+        <v>0.158</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
+      <c r="A128">
+        <v>-3</v>
+      </c>
+      <c r="B128">
+        <v>7.2416</v>
+      </c>
+      <c r="C128">
+        <v>20</v>
+      </c>
+      <c r="D128">
+        <v>20</v>
+      </c>
+      <c r="E128">
+        <v>0</v>
+      </c>
+      <c r="F128">
+        <v>250</v>
+      </c>
+      <c r="G128">
+        <v>112</v>
+      </c>
+      <c r="H128">
+        <v>0.16</v>
+      </c>
+      <c r="I128">
+        <v>0.158</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
+      <c r="A129">
+        <v>-2</v>
+      </c>
+      <c r="B129">
+        <v>7.2501</v>
+      </c>
+      <c r="C129">
+        <v>20</v>
+      </c>
+      <c r="D129">
+        <v>20</v>
+      </c>
+      <c r="E129">
+        <v>0</v>
+      </c>
+      <c r="F129">
+        <v>250</v>
+      </c>
+      <c r="G129">
+        <v>112</v>
+      </c>
+      <c r="H129">
+        <v>0.16</v>
+      </c>
+      <c r="I129">
+        <v>0.158</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
+      <c r="A130">
+        <v>-1</v>
+      </c>
+      <c r="B130">
+        <v>6.9192</v>
+      </c>
+      <c r="C130">
+        <v>20</v>
+      </c>
+      <c r="D130">
+        <v>20</v>
+      </c>
+      <c r="E130">
+        <v>0</v>
+      </c>
+      <c r="F130">
+        <v>250</v>
+      </c>
+      <c r="G130">
+        <v>112</v>
+      </c>
+      <c r="H130">
+        <v>0.16</v>
+      </c>
+      <c r="I130">
+        <v>0.158</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
+      <c r="A131">
+        <v>0</v>
+      </c>
+      <c r="B131">
+        <v>6.4291</v>
+      </c>
+      <c r="C131">
+        <v>20</v>
+      </c>
+      <c r="D131">
+        <v>20</v>
+      </c>
+      <c r="E131">
+        <v>0</v>
+      </c>
+      <c r="F131">
+        <v>250</v>
+      </c>
+      <c r="G131">
+        <v>112</v>
+      </c>
+      <c r="H131">
+        <v>0.16</v>
+      </c>
+      <c r="I131">
+        <v>0.158</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9">
+      <c r="A132">
+        <v>1</v>
+      </c>
+      <c r="B132">
+        <v>5.1962</v>
+      </c>
+      <c r="C132">
+        <v>20</v>
+      </c>
+      <c r="D132">
+        <v>20</v>
+      </c>
+      <c r="E132">
+        <v>0</v>
+      </c>
+      <c r="F132">
+        <v>250</v>
+      </c>
+      <c r="G132">
+        <v>112</v>
+      </c>
+      <c r="H132">
+        <v>0.16</v>
+      </c>
+      <c r="I132">
+        <v>0.158</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
+      <c r="A133">
+        <v>2</v>
+      </c>
+      <c r="B133">
         <v>3.4521</v>
       </c>
-      <c r="E92">
-        <v>0</v>
-      </c>
-      <c r="F92">
-        <v>250</v>
-      </c>
-      <c r="G92">
-        <v>112</v>
-      </c>
-      <c r="H92">
-        <v>0.16</v>
-      </c>
-      <c r="I92">
+      <c r="C133">
+        <v>20</v>
+      </c>
+      <c r="D133">
+        <v>20</v>
+      </c>
+      <c r="E133">
+        <v>0</v>
+      </c>
+      <c r="F133">
+        <v>250</v>
+      </c>
+      <c r="G133">
+        <v>112</v>
+      </c>
+      <c r="H133">
+        <v>0.16</v>
+      </c>
+      <c r="I133">
         <v>0.158</v>
       </c>
     </row>
